--- a/Tesis/Resultados/Escalon/CS/ACOSTADO_Derecho_layer_1.xlsx
+++ b/Tesis/Resultados/Escalon/CS/ACOSTADO_Derecho_layer_1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1212">
   <si>
     <t>W_i</t>
   </si>
@@ -31,436 +31,1732 @@
     <t>W_o</t>
   </si>
   <si>
-    <t>[0.07643938809633255]</t>
-  </si>
-  <si>
-    <t>[-0.19510714709758759]</t>
-  </si>
-  <si>
-    <t>[-0.21799537539482117]</t>
-  </si>
-  <si>
-    <t>[0.4346739649772644]</t>
-  </si>
-  <si>
-    <t>[0.49746814370155334]</t>
-  </si>
-  <si>
-    <t>[-0.41807621717453003]</t>
-  </si>
-  <si>
-    <t>[-0.4832947850227356]</t>
-  </si>
-  <si>
-    <t>[-0.3609689474105835]</t>
-  </si>
-  <si>
-    <t>[-0.4772287905216217]</t>
-  </si>
-  <si>
-    <t>[-0.25079917907714844]</t>
-  </si>
-  <si>
-    <t>[0.12938369810581207]</t>
-  </si>
-  <si>
-    <t>[0.03149065002799034]</t>
-  </si>
-  <si>
-    <t>[-0.09537249803543091]</t>
-  </si>
-  <si>
-    <t>[0.16504020988941193]</t>
-  </si>
-  <si>
-    <t>[-0.12162771821022034]</t>
-  </si>
-  <si>
-    <t>[0.383219838142395]</t>
-  </si>
-  <si>
-    <t>[-0.3328128457069397]</t>
-  </si>
-  <si>
-    <t>[-0.21425242722034454]</t>
-  </si>
-  <si>
-    <t>[-0.40311023592948914]</t>
-  </si>
-  <si>
-    <t>[0.4611341953277588]</t>
-  </si>
-  <si>
-    <t>[0.14783811569213867]</t>
-  </si>
-  <si>
-    <t>[-0.1734575480222702]</t>
-  </si>
-  <si>
-    <t>[0.29922041296958923]</t>
-  </si>
-  <si>
-    <t>[-0.4756840169429779]</t>
-  </si>
-  <si>
-    <t>[0.07524766772985458]</t>
-  </si>
-  <si>
-    <t>[0.1066795289516449]</t>
-  </si>
-  <si>
-    <t>[-0.28518983721733093]</t>
-  </si>
-  <si>
-    <t>[-0.1919925957918167]</t>
-  </si>
-  <si>
-    <t>[-0.5040286183357239]</t>
-  </si>
-  <si>
-    <t>[-0.20074330270290375]</t>
-  </si>
-  <si>
-    <t>[0.15424765646457672]</t>
-  </si>
-  <si>
-    <t>[0.3011058568954468]</t>
-  </si>
-  <si>
-    <t>[-0.038403503596782684]</t>
-  </si>
-  <si>
-    <t>[-0.2096293568611145]</t>
-  </si>
-  <si>
-    <t>[-0.5693999528884888]</t>
-  </si>
-  <si>
-    <t>[0.37835273146629333]</t>
-  </si>
-  <si>
-    <t>[0.38629665970802307]</t>
-  </si>
-  <si>
-    <t>[-0.1078220009803772]</t>
-  </si>
-  <si>
-    <t>[0.11133810877799988]</t>
-  </si>
-  <si>
-    <t>[0.2540743052959442]</t>
-  </si>
-  <si>
-    <t>[0.07150349766016006]</t>
-  </si>
-  <si>
-    <t>[0.3158121109008789]</t>
-  </si>
-  <si>
-    <t>[-0.20625066757202148]</t>
-  </si>
-  <si>
-    <t>[-0.01470179297029972]</t>
-  </si>
-  <si>
-    <t>[0.21599140763282776]</t>
-  </si>
-  <si>
-    <t>[-0.2554536759853363]</t>
-  </si>
-  <si>
-    <t>[0.19150757789611816]</t>
-  </si>
-  <si>
-    <t>[0.4464971423149109]</t>
-  </si>
-  <si>
-    <t>[-0.43936973810195923]</t>
-  </si>
-  <si>
-    <t>[-0.08504252135753632]</t>
-  </si>
-  <si>
-    <t>[0.2780883312225342]</t>
-  </si>
-  <si>
-    <t>[-0.11302774399518967]</t>
-  </si>
-  <si>
-    <t>[-0.4676487147808075]</t>
-  </si>
-  <si>
-    <t>[0.4075545370578766]</t>
-  </si>
-  <si>
-    <t>[0.5581681132316589]</t>
-  </si>
-  <si>
-    <t>[0.35527968406677246]</t>
-  </si>
-  <si>
-    <t>[-0.3589124083518982]</t>
-  </si>
-  <si>
-    <t>[0.4109935164451599]</t>
-  </si>
-  <si>
-    <t>[-0.06275835633277893]</t>
-  </si>
-  <si>
-    <t>[0.019951382651925087]</t>
-  </si>
-  <si>
-    <t>[-0.4124906659126282]</t>
-  </si>
-  <si>
-    <t>[0.4388669431209564]</t>
-  </si>
-  <si>
-    <t>[0.13749732077121735]</t>
-  </si>
-  <si>
-    <t>[-0.46225205063819885]</t>
-  </si>
-  <si>
-    <t>[-0.16919241845607758]</t>
-  </si>
-  <si>
-    <t>[0.27826380729675293]</t>
-  </si>
-  <si>
-    <t>[0.5457804203033447]</t>
-  </si>
-  <si>
-    <t>[-0.3572767376899719]</t>
-  </si>
-  <si>
-    <t>[-0.11192192137241364]</t>
-  </si>
-  <si>
-    <t>[0.055657874792814255]</t>
-  </si>
-  <si>
-    <t>[0.28365358710289]</t>
-  </si>
-  <si>
-    <t>[0.03125284984707832]</t>
-  </si>
-  <si>
-    <t>[0.5379069447517395]</t>
-  </si>
-  <si>
-    <t>[-0.0003611495194490999]</t>
-  </si>
-  <si>
-    <t>[0.31144627928733826]</t>
-  </si>
-  <si>
-    <t>[0.554859459400177]</t>
-  </si>
-  <si>
-    <t>[-0.05079022794961929]</t>
-  </si>
-  <si>
-    <t>[-0.35237595438957214]</t>
-  </si>
-  <si>
-    <t>[-0.375372052192688]</t>
-  </si>
-  <si>
-    <t>[-0.08641582727432251]</t>
-  </si>
-  <si>
-    <t>[-0.602950930595398]</t>
-  </si>
-  <si>
-    <t>[0.03603031858801842]</t>
-  </si>
-  <si>
-    <t>[0.6637570858001709]</t>
-  </si>
-  <si>
-    <t>[-0.19222669303417206]</t>
-  </si>
-  <si>
-    <t>[-0.06610970944166183]</t>
-  </si>
-  <si>
-    <t>[-0.4645666778087616]</t>
-  </si>
-  <si>
-    <t>[0.6086311936378479]</t>
-  </si>
-  <si>
-    <t>[0.7012144327163696]</t>
-  </si>
-  <si>
-    <t>[-0.6349327564239502]</t>
-  </si>
-  <si>
-    <t>[-0.07870736718177795]</t>
-  </si>
-  <si>
-    <t>[-0.16938254237174988]</t>
-  </si>
-  <si>
-    <t>[0.5229758620262146]</t>
-  </si>
-  <si>
-    <t>[-0.38225308060646057]</t>
-  </si>
-  <si>
-    <t>[-0.4536815583705902]</t>
-  </si>
-  <si>
-    <t>[-0.5346850752830505]</t>
-  </si>
-  <si>
-    <t>[-0.08599711209535599]</t>
-  </si>
-  <si>
-    <t>[0.3343990445137024]</t>
-  </si>
-  <si>
-    <t>[0.20497289299964905]</t>
-  </si>
-  <si>
-    <t>[0.06907236576080322]</t>
-  </si>
-  <si>
-    <t>[0.47844550013542175]</t>
-  </si>
-  <si>
-    <t>[0.002331209136173129]</t>
-  </si>
-  <si>
-    <t>[-0.4184070825576782]</t>
-  </si>
-  <si>
-    <t>[0.04805934056639671]</t>
-  </si>
-  <si>
-    <t>[0.47950276732444763]</t>
-  </si>
-  <si>
-    <t>[0.16394822299480438]</t>
-  </si>
-  <si>
-    <t>[-0.3305838406085968]</t>
-  </si>
-  <si>
-    <t>[-0.0063936831429600716]</t>
-  </si>
-  <si>
-    <t>[-0.1718788892030716]</t>
-  </si>
-  <si>
-    <t>[0.4458385109901428]</t>
-  </si>
-  <si>
-    <t>[-0.03336009010672569]</t>
-  </si>
-  <si>
-    <t>[0.2893963158130646]</t>
-  </si>
-  <si>
-    <t>[-0.3669149875640869]</t>
-  </si>
-  <si>
-    <t>[0.09026246517896652]</t>
-  </si>
-  <si>
-    <t>[-0.354302316904068]</t>
-  </si>
-  <si>
-    <t>[-0.39218300580978394]</t>
-  </si>
-  <si>
-    <t>[0.27295488119125366]</t>
-  </si>
-  <si>
-    <t>[-0.17710092663764954]</t>
-  </si>
-  <si>
-    <t>[0.29519835114479065]</t>
-  </si>
-  <si>
-    <t>[-0.38983526825904846]</t>
-  </si>
-  <si>
-    <t>[0.010518520139157772]</t>
-  </si>
-  <si>
-    <t>[-0.040655940771102905]</t>
-  </si>
-  <si>
-    <t>[0.480184406042099]</t>
-  </si>
-  <si>
-    <t>[0.1130203902721405]</t>
-  </si>
-  <si>
-    <t>[-0.3357258141040802]</t>
-  </si>
-  <si>
-    <t>[-0.1814025491476059]</t>
-  </si>
-  <si>
-    <t>[-0.06270178407430649]</t>
-  </si>
-  <si>
-    <t>[-0.17048870027065277]</t>
-  </si>
-  <si>
-    <t>[-0.28128278255462646]</t>
-  </si>
-  <si>
-    <t>[-0.4129844307899475]</t>
-  </si>
-  <si>
-    <t>[0.21602952480316162]</t>
-  </si>
-  <si>
-    <t>[-0.5077851414680481]</t>
-  </si>
-  <si>
-    <t>[0.35484132170677185]</t>
-  </si>
-  <si>
-    <t>[0.20863941311836243]</t>
-  </si>
-  <si>
-    <t>[0.10674092173576355]</t>
-  </si>
-  <si>
-    <t>[-0.48128777742385864]</t>
-  </si>
-  <si>
-    <t>[0.004144277423620224]</t>
-  </si>
-  <si>
-    <t>[0.2200731784105301]</t>
-  </si>
-  <si>
-    <t>[-0.34979093074798584]</t>
-  </si>
-  <si>
-    <t>[0.22083406150341034]</t>
-  </si>
-  <si>
-    <t>[-0.15251998603343964]</t>
-  </si>
-  <si>
-    <t>[-0.05558902025222778]</t>
-  </si>
-  <si>
-    <t>[0.029266219586133957]</t>
-  </si>
-  <si>
-    <t>[0.08180006593465805]</t>
-  </si>
-  <si>
-    <t>[0.3112437129020691]</t>
+    <t>[-0.09807949513196945]</t>
+  </si>
+  <si>
+    <t>[-0.3044467568397522]</t>
+  </si>
+  <si>
+    <t>[-0.034365832805633545]</t>
+  </si>
+  <si>
+    <t>[-0.12222078442573547]</t>
+  </si>
+  <si>
+    <t>[0.008973561227321625]</t>
+  </si>
+  <si>
+    <t>[0.13783545792102814]</t>
+  </si>
+  <si>
+    <t>[-0.18918275833129883]</t>
+  </si>
+  <si>
+    <t>[0.39447739720344543]</t>
+  </si>
+  <si>
+    <t>[-0.11797383427619934]</t>
+  </si>
+  <si>
+    <t>[0.08706451952457428]</t>
+  </si>
+  <si>
+    <t>[-0.08176993578672409]</t>
+  </si>
+  <si>
+    <t>[-0.08361243456602097]</t>
+  </si>
+  <si>
+    <t>[-0.2982216477394104]</t>
+  </si>
+  <si>
+    <t>[-0.06751445680856705]</t>
+  </si>
+  <si>
+    <t>[-0.3176681399345398]</t>
+  </si>
+  <si>
+    <t>[-0.31235289573669434]</t>
+  </si>
+  <si>
+    <t>[-0.06996975839138031]</t>
+  </si>
+  <si>
+    <t>[0.05220433324575424]</t>
+  </si>
+  <si>
+    <t>[0.17159439623355865]</t>
+  </si>
+  <si>
+    <t>[0.2094196379184723]</t>
+  </si>
+  <si>
+    <t>[-0.06838959455490112]</t>
+  </si>
+  <si>
+    <t>[-0.18252240121364594]</t>
+  </si>
+  <si>
+    <t>[0.06866039335727692]</t>
+  </si>
+  <si>
+    <t>[-0.18873392045497894]</t>
+  </si>
+  <si>
+    <t>[0.2974987030029297]</t>
+  </si>
+  <si>
+    <t>[-0.05347011610865593]</t>
+  </si>
+  <si>
+    <t>[-0.24628444015979767]</t>
+  </si>
+  <si>
+    <t>[-0.259622722864151]</t>
+  </si>
+  <si>
+    <t>[-0.1757316291332245]</t>
+  </si>
+  <si>
+    <t>[0.10891535878181458]</t>
+  </si>
+  <si>
+    <t>[0.29224279522895813]</t>
+  </si>
+  <si>
+    <t>[0.1991274058818817]</t>
+  </si>
+  <si>
+    <t>[-0.29219192266464233]</t>
+  </si>
+  <si>
+    <t>[0.22933536767959595]</t>
+  </si>
+  <si>
+    <t>[0.25377655029296875]</t>
+  </si>
+  <si>
+    <t>[-0.31050243973731995]</t>
+  </si>
+  <si>
+    <t>[-0.19987677037715912]</t>
+  </si>
+  <si>
+    <t>[-0.28583723306655884]</t>
+  </si>
+  <si>
+    <t>[-0.19331443309783936]</t>
+  </si>
+  <si>
+    <t>[-0.08768346905708313]</t>
+  </si>
+  <si>
+    <t>[0.01013708021491766]</t>
+  </si>
+  <si>
+    <t>[0.10522538423538208]</t>
+  </si>
+  <si>
+    <t>[-0.07076779007911682]</t>
+  </si>
+  <si>
+    <t>[0.29158270359039307]</t>
+  </si>
+  <si>
+    <t>[-0.39544516801834106]</t>
+  </si>
+  <si>
+    <t>[-0.022725561633706093]</t>
+  </si>
+  <si>
+    <t>[-0.14924204349517822]</t>
+  </si>
+  <si>
+    <t>[-0.1342484951019287]</t>
+  </si>
+  <si>
+    <t>[-0.09467872977256775]</t>
+  </si>
+  <si>
+    <t>[0.024837572127580643]</t>
+  </si>
+  <si>
+    <t>[0.1326836496591568]</t>
+  </si>
+  <si>
+    <t>[-0.28695148229599]</t>
+  </si>
+  <si>
+    <t>[0.32728683948516846]</t>
+  </si>
+  <si>
+    <t>[-0.22748036682605743]</t>
+  </si>
+  <si>
+    <t>[-0.23745974898338318]</t>
+  </si>
+  <si>
+    <t>[0.09149050712585449]</t>
+  </si>
+  <si>
+    <t>[-0.018599430099129677]</t>
+  </si>
+  <si>
+    <t>[0.16266503930091858]</t>
+  </si>
+  <si>
+    <t>[0.031197162345051765]</t>
+  </si>
+  <si>
+    <t>[0.2694114148616791]</t>
+  </si>
+  <si>
+    <t>[0.09299829602241516]</t>
+  </si>
+  <si>
+    <t>[-0.07954666018486023]</t>
+  </si>
+  <si>
+    <t>[0.19177694618701935]</t>
+  </si>
+  <si>
+    <t>[-0.17499327659606934]</t>
+  </si>
+  <si>
+    <t>[0.14919769763946533]</t>
+  </si>
+  <si>
+    <t>[0.21728920936584473]</t>
+  </si>
+  <si>
+    <t>[0.24883626401424408]</t>
+  </si>
+  <si>
+    <t>[0.37304890155792236]</t>
+  </si>
+  <si>
+    <t>[-0.3021538555622101]</t>
+  </si>
+  <si>
+    <t>[0.19270966947078705]</t>
+  </si>
+  <si>
+    <t>[-0.17507338523864746]</t>
+  </si>
+  <si>
+    <t>[-0.0931241437792778]</t>
+  </si>
+  <si>
+    <t>[0.18875820934772491]</t>
+  </si>
+  <si>
+    <t>[0.18263249099254608]</t>
+  </si>
+  <si>
+    <t>[0.10517685115337372]</t>
+  </si>
+  <si>
+    <t>[0.22460271418094635]</t>
+  </si>
+  <si>
+    <t>[0.11177103221416473]</t>
+  </si>
+  <si>
+    <t>[-0.1505616456270218]</t>
+  </si>
+  <si>
+    <t>[0.12503820657730103]</t>
+  </si>
+  <si>
+    <t>[-0.22065788507461548]</t>
+  </si>
+  <si>
+    <t>[0.26421576738357544]</t>
+  </si>
+  <si>
+    <t>[-0.21526063978672028]</t>
+  </si>
+  <si>
+    <t>[-0.13093779981136322]</t>
+  </si>
+  <si>
+    <t>[0.11910140514373779]</t>
+  </si>
+  <si>
+    <t>[-0.39072081446647644]</t>
+  </si>
+  <si>
+    <t>[0.15878206491470337]</t>
+  </si>
+  <si>
+    <t>[0.031243758276104927]</t>
+  </si>
+  <si>
+    <t>[-0.2253207564353943]</t>
+  </si>
+  <si>
+    <t>[0.0013123182579874992]</t>
+  </si>
+  <si>
+    <t>[-0.18093545734882355]</t>
+  </si>
+  <si>
+    <t>[0.13502046465873718]</t>
+  </si>
+  <si>
+    <t>[0.34077540040016174]</t>
+  </si>
+  <si>
+    <t>[-0.14710073173046112]</t>
+  </si>
+  <si>
+    <t>[0.1936878263950348]</t>
+  </si>
+  <si>
+    <t>[0.29583439230918884]</t>
+  </si>
+  <si>
+    <t>[0.2662820518016815]</t>
+  </si>
+  <si>
+    <t>[0.12246495485305786]</t>
+  </si>
+  <si>
+    <t>[-0.06378910690546036]</t>
+  </si>
+  <si>
+    <t>[-0.1140277162194252]</t>
+  </si>
+  <si>
+    <t>[-0.08726172894239426]</t>
+  </si>
+  <si>
+    <t>[-0.07666339725255966]</t>
+  </si>
+  <si>
+    <t>[0.16917626559734344]</t>
+  </si>
+  <si>
+    <t>[0.04828714579343796]</t>
+  </si>
+  <si>
+    <t>[-0.17362910509109497]</t>
+  </si>
+  <si>
+    <t>[0.2461962252855301]</t>
+  </si>
+  <si>
+    <t>[-0.18242567777633667]</t>
+  </si>
+  <si>
+    <t>[-0.13497696816921234]</t>
+  </si>
+  <si>
+    <t>[-0.05665525048971176]</t>
+  </si>
+  <si>
+    <t>[0.07915914058685303]</t>
+  </si>
+  <si>
+    <t>[0.25936537981033325]</t>
+  </si>
+  <si>
+    <t>[0.20783066749572754]</t>
+  </si>
+  <si>
+    <t>[-0.31216195225715637]</t>
+  </si>
+  <si>
+    <t>[0.19210967421531677]</t>
+  </si>
+  <si>
+    <t>[-0.05516861751675606]</t>
+  </si>
+  <si>
+    <t>[0.022337347269058228]</t>
+  </si>
+  <si>
+    <t>[-0.10414688289165497]</t>
+  </si>
+  <si>
+    <t>[-0.19178500771522522]</t>
+  </si>
+  <si>
+    <t>[-0.2853202223777771]</t>
+  </si>
+  <si>
+    <t>[0.2803586423397064]</t>
+  </si>
+  <si>
+    <t>[-0.18466006219387054]</t>
+  </si>
+  <si>
+    <t>[-0.3002282977104187]</t>
+  </si>
+  <si>
+    <t>[0.08325906842947006]</t>
+  </si>
+  <si>
+    <t>[-0.15045441687107086]</t>
+  </si>
+  <si>
+    <t>[0.19288401305675507]</t>
+  </si>
+  <si>
+    <t>[-0.29383787512779236]</t>
+  </si>
+  <si>
+    <t>[0.2043425440788269]</t>
+  </si>
+  <si>
+    <t>[-0.3121158480644226]</t>
+  </si>
+  <si>
+    <t>[0.19380410015583038]</t>
+  </si>
+  <si>
+    <t>[0.20048779249191284]</t>
+  </si>
+  <si>
+    <t>[0.20467473566532135]</t>
+  </si>
+  <si>
+    <t>[-0.2302866280078888]</t>
+  </si>
+  <si>
+    <t>[-0.24114716053009033]</t>
+  </si>
+  <si>
+    <t>[0.2059718519449234]</t>
+  </si>
+  <si>
+    <t>[0.08650017529726028]</t>
+  </si>
+  <si>
+    <t>[0.38683992624282837]</t>
+  </si>
+  <si>
+    <t>[0.29708823561668396]</t>
+  </si>
+  <si>
+    <t>[0.03450213000178337]</t>
+  </si>
+  <si>
+    <t>[-0.18422316014766693]</t>
+  </si>
+  <si>
+    <t>[0.22881388664245605]</t>
+  </si>
+  <si>
+    <t>[0.023311400786042213]</t>
+  </si>
+  <si>
+    <t>[0.009618463926017284]</t>
+  </si>
+  <si>
+    <t>[0.24250322580337524]</t>
+  </si>
+  <si>
+    <t>[-0.31859487295150757]</t>
+  </si>
+  <si>
+    <t>[0.09693501144647598]</t>
+  </si>
+  <si>
+    <t>[-0.16566455364227295]</t>
+  </si>
+  <si>
+    <t>[-0.12162480503320694]</t>
+  </si>
+  <si>
+    <t>[0.33508652448654175]</t>
+  </si>
+  <si>
+    <t>[-0.13209179043769836]</t>
+  </si>
+  <si>
+    <t>[-0.4644177556037903]</t>
+  </si>
+  <si>
+    <t>[-0.23367305099964142]</t>
+  </si>
+  <si>
+    <t>[-0.14426594972610474]</t>
+  </si>
+  <si>
+    <t>[-0.18266795575618744]</t>
+  </si>
+  <si>
+    <t>[-0.15147866308689117]</t>
+  </si>
+  <si>
+    <t>[0.03609038144350052]</t>
+  </si>
+  <si>
+    <t>[0.06494598835706711]</t>
+  </si>
+  <si>
+    <t>[0.2602103650569916]</t>
+  </si>
+  <si>
+    <t>[-0.10457728058099747]</t>
+  </si>
+  <si>
+    <t>[-0.04560256004333496]</t>
+  </si>
+  <si>
+    <t>[0.37783539295196533]</t>
+  </si>
+  <si>
+    <t>[0.2524276673793793]</t>
+  </si>
+  <si>
+    <t>[-0.2474411576986313]</t>
+  </si>
+  <si>
+    <t>[0.38205453753471375]</t>
+  </si>
+  <si>
+    <t>[-0.12573319673538208]</t>
+  </si>
+  <si>
+    <t>[-0.062392763793468475]</t>
+  </si>
+  <si>
+    <t>[0.3242143988609314]</t>
+  </si>
+  <si>
+    <t>[-0.03220520541071892]</t>
+  </si>
+  <si>
+    <t>[-0.0831136628985405]</t>
+  </si>
+  <si>
+    <t>[0.02343006432056427]</t>
+  </si>
+  <si>
+    <t>[-0.2502763271331787]</t>
+  </si>
+  <si>
+    <t>[-0.2510624825954437]</t>
+  </si>
+  <si>
+    <t>[0.1045534536242485]</t>
+  </si>
+  <si>
+    <t>[0.048916883766651154]</t>
+  </si>
+  <si>
+    <t>[-0.13262726366519928]</t>
+  </si>
+  <si>
+    <t>[0.26919984817504883]</t>
+  </si>
+  <si>
+    <t>[-0.0905255600810051]</t>
+  </si>
+  <si>
+    <t>[0.24801312386989594]</t>
+  </si>
+  <si>
+    <t>[-0.12857528030872345]</t>
+  </si>
+  <si>
+    <t>[0.10320393741130829]</t>
+  </si>
+  <si>
+    <t>[0.33457520604133606]</t>
+  </si>
+  <si>
+    <t>[-0.1914730966091156]</t>
+  </si>
+  <si>
+    <t>[0.2514919340610504]</t>
+  </si>
+  <si>
+    <t>[-0.2397659420967102]</t>
+  </si>
+  <si>
+    <t>[0.05049118399620056]</t>
+  </si>
+  <si>
+    <t>[-0.08550696074962616]</t>
+  </si>
+  <si>
+    <t>[-0.35804396867752075]</t>
+  </si>
+  <si>
+    <t>[0.07709325850009918]</t>
+  </si>
+  <si>
+    <t>[-0.1779545247554779]</t>
+  </si>
+  <si>
+    <t>[0.05095243453979492]</t>
+  </si>
+  <si>
+    <t>[0.19707883894443512]</t>
+  </si>
+  <si>
+    <t>[-0.13584746420383453]</t>
+  </si>
+  <si>
+    <t>[-0.39029768109321594]</t>
+  </si>
+  <si>
+    <t>[0.21332436800003052]</t>
+  </si>
+  <si>
+    <t>[-0.3361007571220398]</t>
+  </si>
+  <si>
+    <t>[0.14474652707576752]</t>
+  </si>
+  <si>
+    <t>[-0.23287217319011688]</t>
+  </si>
+  <si>
+    <t>[-0.28949078917503357]</t>
+  </si>
+  <si>
+    <t>[-0.017665158957242966]</t>
+  </si>
+  <si>
+    <t>[-0.04870697855949402]</t>
+  </si>
+  <si>
+    <t>[0.2226925939321518]</t>
+  </si>
+  <si>
+    <t>[0.13023851811885834]</t>
+  </si>
+  <si>
+    <t>[0.3234303593635559]</t>
+  </si>
+  <si>
+    <t>[0.10241352021694183]</t>
+  </si>
+  <si>
+    <t>[-0.1942097544670105]</t>
+  </si>
+  <si>
+    <t>[0.16400940716266632]</t>
+  </si>
+  <si>
+    <t>[-0.12231416255235672]</t>
+  </si>
+  <si>
+    <t>[0.12394244968891144]</t>
+  </si>
+  <si>
+    <t>[0.13457612693309784]</t>
+  </si>
+  <si>
+    <t>[-0.28674253821372986]</t>
+  </si>
+  <si>
+    <t>[-0.1543651521205902]</t>
+  </si>
+  <si>
+    <t>[0.1790148913860321]</t>
+  </si>
+  <si>
+    <t>[0.05539565160870552]</t>
+  </si>
+  <si>
+    <t>[0.19573582708835602]</t>
+  </si>
+  <si>
+    <t>[0.019989052787423134]</t>
+  </si>
+  <si>
+    <t>[-0.1962069422006607]</t>
+  </si>
+  <si>
+    <t>[0.0216012354940176]</t>
+  </si>
+  <si>
+    <t>[0.12282439321279526]</t>
+  </si>
+  <si>
+    <t>[-0.06706693023443222]</t>
+  </si>
+  <si>
+    <t>[-0.2105058878660202]</t>
+  </si>
+  <si>
+    <t>[-0.0496966578066349]</t>
+  </si>
+  <si>
+    <t>[-0.3035579323768616]</t>
+  </si>
+  <si>
+    <t>[0.0479111410677433]</t>
+  </si>
+  <si>
+    <t>[0.04007193073630333]</t>
+  </si>
+  <si>
+    <t>[-0.14878593385219574]</t>
+  </si>
+  <si>
+    <t>[-0.20499832928180695]</t>
+  </si>
+  <si>
+    <t>[-0.20915327966213226]</t>
+  </si>
+  <si>
+    <t>[-0.2577592730522156]</t>
+  </si>
+  <si>
+    <t>[0.19272597134113312]</t>
+  </si>
+  <si>
+    <t>[0.2463662326335907]</t>
+  </si>
+  <si>
+    <t>[-0.296684592962265]</t>
+  </si>
+  <si>
+    <t>[0.07694053649902344]</t>
+  </si>
+  <si>
+    <t>[-0.22362369298934937]</t>
+  </si>
+  <si>
+    <t>[0.11863957345485687]</t>
+  </si>
+  <si>
+    <t>[-0.16831819713115692]</t>
+  </si>
+  <si>
+    <t>[0.12866568565368652]</t>
+  </si>
+  <si>
+    <t>[0.2481359988451004]</t>
+  </si>
+  <si>
+    <t>[0.1153588518500328]</t>
+  </si>
+  <si>
+    <t>[-0.392737478017807]</t>
+  </si>
+  <si>
+    <t>[0.08043719083070755]</t>
+  </si>
+  <si>
+    <t>[0.33340775966644287]</t>
+  </si>
+  <si>
+    <t>[-0.11077579110860825]</t>
+  </si>
+  <si>
+    <t>[-0.3029857277870178]</t>
+  </si>
+  <si>
+    <t>[0.1616864800453186]</t>
+  </si>
+  <si>
+    <t>[-0.2845609784126282]</t>
+  </si>
+  <si>
+    <t>[-0.24436089396476746]</t>
+  </si>
+  <si>
+    <t>[0.11070194095373154]</t>
+  </si>
+  <si>
+    <t>[-0.22847923636436462]</t>
+  </si>
+  <si>
+    <t>[0.17882530391216278]</t>
+  </si>
+  <si>
+    <t>[0.07058984041213989]</t>
+  </si>
+  <si>
+    <t>[0.016282819211483]</t>
+  </si>
+  <si>
+    <t>[-0.08699142932891846]</t>
+  </si>
+  <si>
+    <t>[0.21481585502624512]</t>
+  </si>
+  <si>
+    <t>[0.1596987098455429]</t>
+  </si>
+  <si>
+    <t>[-0.19820043444633484]</t>
+  </si>
+  <si>
+    <t>[0.12528426945209503]</t>
+  </si>
+  <si>
+    <t>[-0.2487049400806427]</t>
+  </si>
+  <si>
+    <t>[-0.17453104257583618]</t>
+  </si>
+  <si>
+    <t>[-0.06265875697135925]</t>
+  </si>
+  <si>
+    <t>[0.15963467955589294]</t>
+  </si>
+  <si>
+    <t>[0.042725831270217896]</t>
+  </si>
+  <si>
+    <t>[0.02036399021744728]</t>
+  </si>
+  <si>
+    <t>[-0.06694310158491135]</t>
+  </si>
+  <si>
+    <t>[-0.3218948245048523]</t>
+  </si>
+  <si>
+    <t>[-0.3588690459728241]</t>
+  </si>
+  <si>
+    <t>[0.2754027843475342]</t>
+  </si>
+  <si>
+    <t>[-0.16009259223937988]</t>
+  </si>
+  <si>
+    <t>[0.11306313425302505]</t>
+  </si>
+  <si>
+    <t>[0.14261889457702637]</t>
+  </si>
+  <si>
+    <t>[-0.29317766427993774]</t>
+  </si>
+  <si>
+    <t>[0.21790491044521332]</t>
+  </si>
+  <si>
+    <t>[0.11399833112955093]</t>
+  </si>
+  <si>
+    <t>[-0.02226407825946808]</t>
+  </si>
+  <si>
+    <t>[0.19958196580410004]</t>
+  </si>
+  <si>
+    <t>[-0.28538423776626587]</t>
+  </si>
+  <si>
+    <t>[-0.14048826694488525]</t>
+  </si>
+  <si>
+    <t>[-0.1989058554172516]</t>
+  </si>
+  <si>
+    <t>[0.1480453610420227]</t>
+  </si>
+  <si>
+    <t>[-0.41403594613075256]</t>
+  </si>
+  <si>
+    <t>[-0.2803541421890259]</t>
+  </si>
+  <si>
+    <t>[-0.12370272725820541]</t>
+  </si>
+  <si>
+    <t>[0.02860441617667675]</t>
+  </si>
+  <si>
+    <t>[-0.12883104383945465]</t>
+  </si>
+  <si>
+    <t>[-0.3711698353290558]</t>
+  </si>
+  <si>
+    <t>[0.11131845414638519]</t>
+  </si>
+  <si>
+    <t>[0.3550277352333069]</t>
+  </si>
+  <si>
+    <t>[0.126634418964386]</t>
+  </si>
+  <si>
+    <t>[-0.24967588484287262]</t>
+  </si>
+  <si>
+    <t>[-0.11648275703191757]</t>
+  </si>
+  <si>
+    <t>[0.10245014727115631]</t>
+  </si>
+  <si>
+    <t>[0.16330720484256744]</t>
+  </si>
+  <si>
+    <t>[0.3132857382297516]</t>
+  </si>
+  <si>
+    <t>[0.313251256942749]</t>
+  </si>
+  <si>
+    <t>[0.18918278813362122]</t>
+  </si>
+  <si>
+    <t>[-0.15946036577224731]</t>
+  </si>
+  <si>
+    <t>[-0.09933525323867798]</t>
+  </si>
+  <si>
+    <t>[0.284430593252182]</t>
+  </si>
+  <si>
+    <t>[-0.20423921942710876]</t>
+  </si>
+  <si>
+    <t>[0.13201792538166046]</t>
+  </si>
+  <si>
+    <t>[0.00287253363057971]</t>
+  </si>
+  <si>
+    <t>[-0.26690807938575745]</t>
+  </si>
+  <si>
+    <t>[-0.11890164017677307]</t>
+  </si>
+  <si>
+    <t>[0.35377493500709534]</t>
+  </si>
+  <si>
+    <t>[-0.011117239482700825]</t>
+  </si>
+  <si>
+    <t>[0.0296027809381485]</t>
+  </si>
+  <si>
+    <t>[-0.1429426223039627]</t>
+  </si>
+  <si>
+    <t>[0.007958280853927135]</t>
+  </si>
+  <si>
+    <t>[0.06603796035051346]</t>
+  </si>
+  <si>
+    <t>[-0.03904818743467331]</t>
+  </si>
+  <si>
+    <t>[-0.04193815961480141]</t>
+  </si>
+  <si>
+    <t>[-0.16059033572673798]</t>
+  </si>
+  <si>
+    <t>[0.19209390878677368]</t>
+  </si>
+  <si>
+    <t>[-0.098885677754879]</t>
+  </si>
+  <si>
+    <t>[0.011476520448923111]</t>
+  </si>
+  <si>
+    <t>[0.02084348350763321]</t>
+  </si>
+  <si>
+    <t>[-0.2881563603878021]</t>
+  </si>
+  <si>
+    <t>[0.0951540470123291]</t>
+  </si>
+  <si>
+    <t>[-0.2621549069881439]</t>
+  </si>
+  <si>
+    <t>[-0.24942529201507568]</t>
+  </si>
+  <si>
+    <t>[-0.047931693494319916]</t>
+  </si>
+  <si>
+    <t>[0.15078923106193542]</t>
+  </si>
+  <si>
+    <t>[0.08196838945150375]</t>
+  </si>
+  <si>
+    <t>[-0.19913703203201294]</t>
+  </si>
+  <si>
+    <t>[-0.18972264230251312]</t>
+  </si>
+  <si>
+    <t>[0.31508785486221313]</t>
+  </si>
+  <si>
+    <t>[-0.09249568730592728]</t>
+  </si>
+  <si>
+    <t>[-0.002515049185603857]</t>
+  </si>
+  <si>
+    <t>[0.08120866864919662]</t>
+  </si>
+  <si>
+    <t>[0.19365046918392181]</t>
+  </si>
+  <si>
+    <t>[0.25363242626190186]</t>
+  </si>
+  <si>
+    <t>[-0.11930078268051147]</t>
+  </si>
+  <si>
+    <t>[0.024347269907593727]</t>
+  </si>
+  <si>
+    <t>[-0.41417768597602844]</t>
+  </si>
+  <si>
+    <t>[0.010557255707681179]</t>
+  </si>
+  <si>
+    <t>[0.25118473172187805]</t>
+  </si>
+  <si>
+    <t>[0.35239773988723755]</t>
+  </si>
+  <si>
+    <t>[-0.325202077627182]</t>
+  </si>
+  <si>
+    <t>[-0.16326706111431122]</t>
+  </si>
+  <si>
+    <t>[-0.37844058871269226]</t>
+  </si>
+  <si>
+    <t>[0.21470855176448822]</t>
+  </si>
+  <si>
+    <t>[-0.00469292514026165]</t>
+  </si>
+  <si>
+    <t>[0.1970447599887848]</t>
+  </si>
+  <si>
+    <t>[0.295632541179657]</t>
+  </si>
+  <si>
+    <t>[0.18942832946777344]</t>
+  </si>
+  <si>
+    <t>[0.3269811272621155]</t>
+  </si>
+  <si>
+    <t>[0.04275580495595932]</t>
+  </si>
+  <si>
+    <t>[-0.21467553079128265]</t>
+  </si>
+  <si>
+    <t>[0.28019049763679504]</t>
+  </si>
+  <si>
+    <t>[0.07247467339038849]</t>
+  </si>
+  <si>
+    <t>[0.2405729591846466]</t>
+  </si>
+  <si>
+    <t>[-0.01234264113008976]</t>
+  </si>
+  <si>
+    <t>[-0.36224421858787537]</t>
+  </si>
+  <si>
+    <t>[-0.3140382766723633]</t>
+  </si>
+  <si>
+    <t>[0.16947148740291595]</t>
+  </si>
+  <si>
+    <t>[0.16875006258487701]</t>
+  </si>
+  <si>
+    <t>[-0.2918277382850647]</t>
+  </si>
+  <si>
+    <t>[0.43188729882240295]</t>
+  </si>
+  <si>
+    <t>[-0.07182623445987701]</t>
+  </si>
+  <si>
+    <t>[-0.25878965854644775]</t>
+  </si>
+  <si>
+    <t>[-0.21098050475120544]</t>
+  </si>
+  <si>
+    <t>[0.021961759775877]</t>
+  </si>
+  <si>
+    <t>[0.1462554782629013]</t>
+  </si>
+  <si>
+    <t>[0.24613210558891296]</t>
+  </si>
+  <si>
+    <t>[0.063814178109169]</t>
+  </si>
+  <si>
+    <t>[-0.07815787196159363]</t>
+  </si>
+  <si>
+    <t>[0.22754798829555511]</t>
+  </si>
+  <si>
+    <t>[-0.16388024389743805]</t>
+  </si>
+  <si>
+    <t>[-0.13871808350086212]</t>
+  </si>
+  <si>
+    <t>[-0.02925575152039528]</t>
+  </si>
+  <si>
+    <t>[0.017353111878037453]</t>
+  </si>
+  <si>
+    <t>[0.16443440318107605]</t>
+  </si>
+  <si>
+    <t>[0.3002690076828003]</t>
+  </si>
+  <si>
+    <t>[0.02413366734981537]</t>
+  </si>
+  <si>
+    <t>[-0.009627274237573147]</t>
+  </si>
+  <si>
+    <t>[-0.02966293878853321]</t>
+  </si>
+  <si>
+    <t>[-0.346425324678421]</t>
+  </si>
+  <si>
+    <t>[-0.38431796431541443]</t>
+  </si>
+  <si>
+    <t>[-0.30664902925491333]</t>
+  </si>
+  <si>
+    <t>[0.26606637239456177]</t>
+  </si>
+  <si>
+    <t>[-0.09940086305141449]</t>
+  </si>
+  <si>
+    <t>[-0.17958223819732666]</t>
+  </si>
+  <si>
+    <t>[0.2269158512353897]</t>
+  </si>
+  <si>
+    <t>[-0.3503338098526001]</t>
+  </si>
+  <si>
+    <t>[-0.2769629657268524]</t>
+  </si>
+  <si>
+    <t>[-0.1282079815864563]</t>
+  </si>
+  <si>
+    <t>[-0.3031843602657318]</t>
+  </si>
+  <si>
+    <t>[-0.06872913986444473]</t>
+  </si>
+  <si>
+    <t>[-0.05445004254579544]</t>
+  </si>
+  <si>
+    <t>[0.09173227101564407]</t>
+  </si>
+  <si>
+    <t>[0.24844853579998016]</t>
+  </si>
+  <si>
+    <t>[-0.11534972488880157]</t>
+  </si>
+  <si>
+    <t>[0.09612344950437546]</t>
+  </si>
+  <si>
+    <t>[0.04033491015434265]</t>
+  </si>
+  <si>
+    <t>[0.13475464284420013]</t>
+  </si>
+  <si>
+    <t>[-0.14901435375213623]</t>
+  </si>
+  <si>
+    <t>[0.09545298665761948]</t>
+  </si>
+  <si>
+    <t>[-0.034745968878269196]</t>
+  </si>
+  <si>
+    <t>[0.17356222867965698]</t>
+  </si>
+  <si>
+    <t>[-0.05434580519795418]</t>
+  </si>
+  <si>
+    <t>[0.13995681703090668]</t>
+  </si>
+  <si>
+    <t>[-0.030429067090153694]</t>
+  </si>
+  <si>
+    <t>[0.05271115154027939]</t>
+  </si>
+  <si>
+    <t>[0.19177675247192383]</t>
+  </si>
+  <si>
+    <t>[-0.3944433927536011]</t>
+  </si>
+  <si>
+    <t>[-0.0027895248495042324]</t>
+  </si>
+  <si>
+    <t>[-0.17715062201023102]</t>
+  </si>
+  <si>
+    <t>[-0.32143455743789673]</t>
+  </si>
+  <si>
+    <t>[0.1867433488368988]</t>
+  </si>
+  <si>
+    <t>[0.04131500422954559]</t>
+  </si>
+  <si>
+    <t>[0.08676061779260635]</t>
+  </si>
+  <si>
+    <t>[0.020569108426570892]</t>
+  </si>
+  <si>
+    <t>[-0.06184831261634827]</t>
+  </si>
+  <si>
+    <t>[-0.20778276026248932]</t>
+  </si>
+  <si>
+    <t>[-0.1993323415517807]</t>
+  </si>
+  <si>
+    <t>[-0.04195476695895195]</t>
+  </si>
+  <si>
+    <t>[0.05648736655712128]</t>
+  </si>
+  <si>
+    <t>[-0.14053207635879517]</t>
+  </si>
+  <si>
+    <t>[-0.1434594690799713]</t>
+  </si>
+  <si>
+    <t>[0.07363942265510559]</t>
+  </si>
+  <si>
+    <t>[-0.16389289498329163]</t>
+  </si>
+  <si>
+    <t>[-0.18833130598068237]</t>
+  </si>
+  <si>
+    <t>[-0.3047749698162079]</t>
+  </si>
+  <si>
+    <t>[-0.19850412011146545]</t>
+  </si>
+  <si>
+    <t>[-0.19649964570999146]</t>
+  </si>
+  <si>
+    <t>[-0.334215372800827]</t>
+  </si>
+  <si>
+    <t>[-0.09272698312997818]</t>
+  </si>
+  <si>
+    <t>[0.3572564423084259]</t>
+  </si>
+  <si>
+    <t>[0.07738421112298965]</t>
+  </si>
+  <si>
+    <t>[0.00028376575210131705]</t>
+  </si>
+  <si>
+    <t>[0.16410121321678162]</t>
+  </si>
+  <si>
+    <t>[0.15017417073249817]</t>
+  </si>
+  <si>
+    <t>[-0.3152756690979004]</t>
+  </si>
+  <si>
+    <t>[0.19899623095989227]</t>
+  </si>
+  <si>
+    <t>[0.007799981627613306]</t>
+  </si>
+  <si>
+    <t>[-0.4012294113636017]</t>
+  </si>
+  <si>
+    <t>[-0.16389137506484985]</t>
+  </si>
+  <si>
+    <t>[-0.15970875322818756]</t>
+  </si>
+  <si>
+    <t>[0.01928986981511116]</t>
+  </si>
+  <si>
+    <t>[0.4594230055809021]</t>
+  </si>
+  <si>
+    <t>[-0.18361304700374603]</t>
+  </si>
+  <si>
+    <t>[0.028559740632772446]</t>
+  </si>
+  <si>
+    <t>[0.22342146933078766]</t>
+  </si>
+  <si>
+    <t>[0.2777503728866577]</t>
+  </si>
+  <si>
+    <t>[0.010809144005179405]</t>
+  </si>
+  <si>
+    <t>[0.4142283797264099]</t>
+  </si>
+  <si>
+    <t>[-0.055775053799152374]</t>
+  </si>
+  <si>
+    <t>[-0.2766072452068329]</t>
+  </si>
+  <si>
+    <t>[-0.25196975469589233]</t>
+  </si>
+  <si>
+    <t>[-0.34719985723495483]</t>
+  </si>
+  <si>
+    <t>[0.2973380386829376]</t>
+  </si>
+  <si>
+    <t>[-0.31603753566741943]</t>
+  </si>
+  <si>
+    <t>[0.004508887883275747]</t>
+  </si>
+  <si>
+    <t>[0.2662552297115326]</t>
+  </si>
+  <si>
+    <t>[0.38188034296035767]</t>
+  </si>
+  <si>
+    <t>[-0.04991200566291809]</t>
+  </si>
+  <si>
+    <t>[-0.2993193566799164]</t>
+  </si>
+  <si>
+    <t>[-0.10454314947128296]</t>
+  </si>
+  <si>
+    <t>[0.13188695907592773]</t>
+  </si>
+  <si>
+    <t>[-0.1439223438501358]</t>
+  </si>
+  <si>
+    <t>[0.11060792952775955]</t>
+  </si>
+  <si>
+    <t>[-0.01864880882203579]</t>
+  </si>
+  <si>
+    <t>[-0.24595913290977478]</t>
+  </si>
+  <si>
+    <t>[-0.21665015816688538]</t>
+  </si>
+  <si>
+    <t>[-0.2368362993001938]</t>
+  </si>
+  <si>
+    <t>[0.29634320735931396]</t>
+  </si>
+  <si>
+    <t>[-0.2462710589170456]</t>
+  </si>
+  <si>
+    <t>[0.03158794716000557]</t>
+  </si>
+  <si>
+    <t>[0.2535075843334198]</t>
+  </si>
+  <si>
+    <t>[0.1353900134563446]</t>
+  </si>
+  <si>
+    <t>[-0.23755541443824768]</t>
+  </si>
+  <si>
+    <t>[-0.41321220993995667]</t>
+  </si>
+  <si>
+    <t>[-0.21441493928432465]</t>
+  </si>
+  <si>
+    <t>[-0.46479010581970215]</t>
+  </si>
+  <si>
+    <t>[-0.2788340151309967]</t>
+  </si>
+  <si>
+    <t>[0.28552713990211487]</t>
+  </si>
+  <si>
+    <t>[-0.3610657751560211]</t>
+  </si>
+  <si>
+    <t>[0.36930084228515625]</t>
+  </si>
+  <si>
+    <t>[-0.03291796147823334]</t>
+  </si>
+  <si>
+    <t>[-0.10409616678953171]</t>
+  </si>
+  <si>
+    <t>[0.029298242181539536]</t>
+  </si>
+  <si>
+    <t>[0.24992279708385468]</t>
+  </si>
+  <si>
+    <t>[0.14001674950122833]</t>
+  </si>
+  <si>
+    <t>[-0.22352276742458344]</t>
+  </si>
+  <si>
+    <t>[0.24197444319725037]</t>
+  </si>
+  <si>
+    <t>[-0.2517358362674713]</t>
+  </si>
+  <si>
+    <t>[-0.08687097579240799]</t>
+  </si>
+  <si>
+    <t>[0.056821372359991074]</t>
+  </si>
+  <si>
+    <t>[0.10932721942663193]</t>
+  </si>
+  <si>
+    <t>[0.06117546558380127]</t>
+  </si>
+  <si>
+    <t>[-0.37851405143737793]</t>
+  </si>
+  <si>
+    <t>[0.06908208876848221]</t>
+  </si>
+  <si>
+    <t>[0.29570186138153076]</t>
+  </si>
+  <si>
+    <t>[0.1907208114862442]</t>
+  </si>
+  <si>
+    <t>[-0.17022705078125]</t>
+  </si>
+  <si>
+    <t>[0.3166320025920868]</t>
+  </si>
+  <si>
+    <t>[0.04126252979040146]</t>
+  </si>
+  <si>
+    <t>[-0.006274322513490915]</t>
+  </si>
+  <si>
+    <t>[-0.19124169647693634]</t>
+  </si>
+  <si>
+    <t>[0.21559295058250427]</t>
+  </si>
+  <si>
+    <t>[0.004380440339446068]</t>
+  </si>
+  <si>
+    <t>[0.17722614109516144]</t>
+  </si>
+  <si>
+    <t>[0.1720869392156601]</t>
+  </si>
+  <si>
+    <t>[0.3838579058647156]</t>
+  </si>
+  <si>
+    <t>[0.22154082357883453]</t>
+  </si>
+  <si>
+    <t>[-0.1665927916765213]</t>
+  </si>
+  <si>
+    <t>[0.08942610025405884]</t>
+  </si>
+  <si>
+    <t>[0.1568528562784195]</t>
+  </si>
+  <si>
+    <t>[0.04370788857340813]</t>
+  </si>
+  <si>
+    <t>[0.17106442153453827]</t>
+  </si>
+  <si>
+    <t>[0.08979111164808273]</t>
+  </si>
+  <si>
+    <t>[-0.30931615829467773]</t>
+  </si>
+  <si>
+    <t>[-0.32182878255844116]</t>
+  </si>
+  <si>
+    <t>[0.11371919512748718]</t>
+  </si>
+  <si>
+    <t>[-0.26589199900627136]</t>
+  </si>
+  <si>
+    <t>[0.01258044596761465]</t>
+  </si>
+  <si>
+    <t>[-0.2619114816188812]</t>
+  </si>
+  <si>
+    <t>[0.2898678779602051]</t>
+  </si>
+  <si>
+    <t>[-0.1347097009420395]</t>
+  </si>
+  <si>
+    <t>[-0.08690201491117477]</t>
+  </si>
+  <si>
+    <t>[0.3172219693660736]</t>
+  </si>
+  <si>
+    <t>[-0.006860804278403521]</t>
+  </si>
+  <si>
+    <t>[0.3564204275608063]</t>
+  </si>
+  <si>
+    <t>[-0.4127562344074249]</t>
+  </si>
+  <si>
+    <t>[0.3461918234825134]</t>
+  </si>
+  <si>
+    <t>[-0.16152647137641907]</t>
+  </si>
+  <si>
+    <t>[0.2259414941072464]</t>
+  </si>
+  <si>
+    <t>[0.32300007343292236]</t>
+  </si>
+  <si>
+    <t>[0.16392232477664948]</t>
+  </si>
+  <si>
+    <t>[0.025215812027454376]</t>
+  </si>
+  <si>
+    <t>[0.29307886958122253]</t>
+  </si>
+  <si>
+    <t>[0.04258018732070923]</t>
+  </si>
+  <si>
+    <t>[0.10236574709415436]</t>
+  </si>
+  <si>
+    <t>[-0.018552687019109726]</t>
+  </si>
+  <si>
+    <t>[0.30718910694122314]</t>
+  </si>
+  <si>
+    <t>[0.2839147448539734]</t>
+  </si>
+  <si>
+    <t>[0.00038258032873272896]</t>
+  </si>
+  <si>
+    <t>[0.40722185373306274]</t>
+  </si>
+  <si>
+    <t>[0.2284657210111618]</t>
+  </si>
+  <si>
+    <t>[0.13997456431388855]</t>
+  </si>
+  <si>
+    <t>[0.015256986953318119]</t>
+  </si>
+  <si>
+    <t>[0.1516655683517456]</t>
+  </si>
+  <si>
+    <t>[-0.029675133526325226]</t>
+  </si>
+  <si>
+    <t>[-0.16369102895259857]</t>
+  </si>
+  <si>
+    <t>[-0.263188898563385]</t>
+  </si>
+  <si>
+    <t>[0.0274397823959589]</t>
+  </si>
+  <si>
+    <t>[0.35925570130348206]</t>
+  </si>
+  <si>
+    <t>[0.31730401515960693]</t>
+  </si>
+  <si>
+    <t>[0.17960692942142487]</t>
+  </si>
+  <si>
+    <t>[0.04776443913578987]</t>
+  </si>
+  <si>
+    <t>[-0.021772906184196472]</t>
+  </si>
+  <si>
+    <t>[-0.2572685182094574]</t>
+  </si>
+  <si>
+    <t>[0.21079277992248535]</t>
+  </si>
+  <si>
+    <t>[-0.41979655623435974]</t>
+  </si>
+  <si>
+    <t>[0.3697003722190857]</t>
+  </si>
+  <si>
+    <t>[-0.12149366736412048]</t>
+  </si>
+  <si>
+    <t>[0.028920020908117294]</t>
+  </si>
+  <si>
+    <t>[0.14678138494491577]</t>
+  </si>
+  <si>
+    <t>[0.03604557365179062]</t>
+  </si>
+  <si>
+    <t>[-0.08261692523956299]</t>
+  </si>
+  <si>
+    <t>[-0.2140129953622818]</t>
+  </si>
+  <si>
+    <t>[0.06711144000291824]</t>
+  </si>
+  <si>
+    <t>[-0.26608967781066895]</t>
+  </si>
+  <si>
+    <t>[-0.12811650335788727]</t>
+  </si>
+  <si>
+    <t>[-0.2878255546092987]</t>
+  </si>
+  <si>
+    <t>[0.08742509037256241]</t>
+  </si>
+  <si>
+    <t>[0.21172121167182922]</t>
+  </si>
+  <si>
+    <t>[0.039244744926691055]</t>
+  </si>
+  <si>
+    <t>[-0.15638065338134766]</t>
+  </si>
+  <si>
+    <t>[-0.39637207984924316]</t>
+  </si>
+  <si>
+    <t>[-0.299439013004303]</t>
+  </si>
+  <si>
+    <t>[0.1621348112821579]</t>
+  </si>
+  <si>
+    <t>[-0.06872638314962387]</t>
+  </si>
+  <si>
+    <t>[0.3905925452709198]</t>
+  </si>
+  <si>
+    <t>[0.42079538106918335]</t>
+  </si>
+  <si>
+    <t>[-0.07360775023698807]</t>
+  </si>
+  <si>
+    <t>[-0.19256672263145447]</t>
+  </si>
+  <si>
+    <t>[0.01707184687256813]</t>
+  </si>
+  <si>
+    <t>[0.09385520964860916]</t>
   </si>
   <si>
     <t>U_i</t>
@@ -475,436 +1771,1732 @@
     <t>U_o</t>
   </si>
   <si>
-    <t>[0.21278339624404907]</t>
-  </si>
-  <si>
-    <t>[0.1898086816072464]</t>
-  </si>
-  <si>
-    <t>[0.039662204682826996]</t>
-  </si>
-  <si>
-    <t>[0.40060192346572876]</t>
-  </si>
-  <si>
-    <t>[0.6341071128845215]</t>
-  </si>
-  <si>
-    <t>[-0.07165464758872986]</t>
-  </si>
-  <si>
-    <t>[-0.19061172008514404]</t>
-  </si>
-  <si>
-    <t>[-0.07968948781490326]</t>
-  </si>
-  <si>
-    <t>[-0.4167257249355316]</t>
-  </si>
-  <si>
-    <t>[-0.019832957535982132]</t>
-  </si>
-  <si>
-    <t>[-0.026750342920422554]</t>
-  </si>
-  <si>
-    <t>[-0.3079080283641815]</t>
-  </si>
-  <si>
-    <t>[0.5254156589508057]</t>
-  </si>
-  <si>
-    <t>[-0.049365703016519547]</t>
-  </si>
-  <si>
-    <t>[-0.020478175953030586]</t>
-  </si>
-  <si>
-    <t>[0.19184786081314087]</t>
-  </si>
-  <si>
-    <t>[0.08117281645536423]</t>
-  </si>
-  <si>
-    <t>[-0.00831166747957468]</t>
-  </si>
-  <si>
-    <t>[0.18768903613090515]</t>
-  </si>
-  <si>
-    <t>[0.2730083465576172]</t>
-  </si>
-  <si>
-    <t>[0.10028762370347977]</t>
-  </si>
-  <si>
-    <t>[-0.2998763620853424]</t>
-  </si>
-  <si>
-    <t>[-0.12917403876781464]</t>
-  </si>
-  <si>
-    <t>[0.023226190358400345]</t>
-  </si>
-  <si>
-    <t>[0.18933671712875366]</t>
-  </si>
-  <si>
-    <t>[-0.23104232549667358]</t>
-  </si>
-  <si>
-    <t>[0.046076882630586624]</t>
-  </si>
-  <si>
-    <t>[0.4303097128868103]</t>
-  </si>
-  <si>
-    <t>[0.07420876622200012]</t>
-  </si>
-  <si>
-    <t>[0.007703016046434641]</t>
-  </si>
-  <si>
-    <t>[-0.23133546113967896]</t>
-  </si>
-  <si>
-    <t>[-0.11479737609624863]</t>
-  </si>
-  <si>
-    <t>[-0.22712595760822296]</t>
-  </si>
-  <si>
-    <t>[-0.5655617713928223]</t>
-  </si>
-  <si>
-    <t>[0.4384089708328247]</t>
-  </si>
-  <si>
-    <t>[-0.044331833720207214]</t>
-  </si>
-  <si>
-    <t>[-0.1111336201429367]</t>
-  </si>
-  <si>
-    <t>[0.14224272966384888]</t>
-  </si>
-  <si>
-    <t>[0.3419388234615326]</t>
-  </si>
-  <si>
-    <t>[0.3610343635082245]</t>
-  </si>
-  <si>
-    <t>[-0.08584342896938324]</t>
-  </si>
-  <si>
-    <t>[-0.05048798397183418]</t>
-  </si>
-  <si>
-    <t>[0.36199498176574707]</t>
-  </si>
-  <si>
-    <t>[0.02392638474702835]</t>
-  </si>
-  <si>
-    <t>[0.12243600189685822]</t>
-  </si>
-  <si>
-    <t>[-0.1125258356332779]</t>
-  </si>
-  <si>
-    <t>[-0.22092485427856445]</t>
-  </si>
-  <si>
-    <t>[-0.4908187985420227]</t>
-  </si>
-  <si>
-    <t>[0.13867929577827454]</t>
-  </si>
-  <si>
-    <t>[-0.1225573718547821]</t>
-  </si>
-  <si>
-    <t>[0.05152393504977226]</t>
-  </si>
-  <si>
-    <t>[0.18108844757080078]</t>
-  </si>
-  <si>
-    <t>[-0.10255706310272217]</t>
-  </si>
-  <si>
-    <t>[-0.3053607940673828]</t>
-  </si>
-  <si>
-    <t>[-0.16986972093582153]</t>
-  </si>
-  <si>
-    <t>[-0.09711454063653946]</t>
-  </si>
-  <si>
-    <t>[-0.12297873944044113]</t>
-  </si>
-  <si>
-    <t>[0.42532408237457275]</t>
-  </si>
-  <si>
-    <t>[0.32856225967407227]</t>
-  </si>
-  <si>
-    <t>[-0.15275508165359497]</t>
-  </si>
-  <si>
-    <t>[-0.046946749091148376]</t>
-  </si>
-  <si>
-    <t>[0.047035686671733856]</t>
-  </si>
-  <si>
-    <t>[-0.04792749136686325]</t>
-  </si>
-  <si>
-    <t>[0.20796102285385132]</t>
-  </si>
-  <si>
-    <t>[-0.11853013932704926]</t>
-  </si>
-  <si>
-    <t>[-0.03935835510492325]</t>
-  </si>
-  <si>
-    <t>[0.3305760324001312]</t>
-  </si>
-  <si>
-    <t>[0.45269301533699036]</t>
-  </si>
-  <si>
-    <t>[0.3400455117225647]</t>
-  </si>
-  <si>
-    <t>[0.21675334870815277]</t>
-  </si>
-  <si>
-    <t>[0.023589443415403366]</t>
-  </si>
-  <si>
-    <t>[-0.004070353228598833]</t>
-  </si>
-  <si>
-    <t>[0.07389362156391144]</t>
-  </si>
-  <si>
-    <t>[-0.0792979747056961]</t>
-  </si>
-  <si>
-    <t>[-0.2680259644985199]</t>
-  </si>
-  <si>
-    <t>[0.2064218819141388]</t>
-  </si>
-  <si>
-    <t>[0.03552671894431114]</t>
-  </si>
-  <si>
-    <t>[0.41782817244529724]</t>
-  </si>
-  <si>
-    <t>[-0.03557530418038368]</t>
-  </si>
-  <si>
-    <t>[0.05611724779009819]</t>
-  </si>
-  <si>
-    <t>[-0.33458423614501953]</t>
-  </si>
-  <si>
-    <t>[0.361268013715744]</t>
-  </si>
-  <si>
-    <t>[0.11351658403873444]</t>
-  </si>
-  <si>
-    <t>[-0.24957239627838135]</t>
-  </si>
-  <si>
-    <t>[0.11437041312456131]</t>
-  </si>
-  <si>
-    <t>[0.2782467007637024]</t>
-  </si>
-  <si>
-    <t>[0.26984819769859314]</t>
-  </si>
-  <si>
-    <t>[-0.10624422878026962]</t>
-  </si>
-  <si>
-    <t>[-0.1686062514781952]</t>
-  </si>
-  <si>
-    <t>[-0.20855571329593658]</t>
-  </si>
-  <si>
-    <t>[-0.07971112430095673]</t>
-  </si>
-  <si>
-    <t>[-0.14096207916736603]</t>
-  </si>
-  <si>
-    <t>[-0.015370504930615425]</t>
-  </si>
-  <si>
-    <t>[-0.0014322235947474837]</t>
-  </si>
-  <si>
-    <t>[-0.3241759240627289]</t>
-  </si>
-  <si>
-    <t>[-0.2718142569065094]</t>
-  </si>
-  <si>
-    <t>[-0.1500152051448822]</t>
-  </si>
-  <si>
-    <t>[-0.11539024114608765]</t>
-  </si>
-  <si>
-    <t>[-0.014122306369245052]</t>
-  </si>
-  <si>
-    <t>[0.18922990560531616]</t>
-  </si>
-  <si>
-    <t>[0.09984500706195831]</t>
-  </si>
-  <si>
-    <t>[-0.47572454810142517]</t>
-  </si>
-  <si>
-    <t>[-0.16395410895347595]</t>
-  </si>
-  <si>
-    <t>[-0.0855880081653595]</t>
-  </si>
-  <si>
-    <t>[-0.2778775095939636]</t>
-  </si>
-  <si>
-    <t>[0.11862789839506149]</t>
-  </si>
-  <si>
-    <t>[0.30268603563308716]</t>
-  </si>
-  <si>
-    <t>[0.02780047431588173]</t>
-  </si>
-  <si>
-    <t>[0.22751416265964508]</t>
-  </si>
-  <si>
-    <t>[0.2529802620410919]</t>
-  </si>
-  <si>
-    <t>[-0.07779000699520111]</t>
-  </si>
-  <si>
-    <t>[0.24369120597839355]</t>
-  </si>
-  <si>
-    <t>[-0.060363803058862686]</t>
-  </si>
-  <si>
-    <t>[-0.25423145294189453]</t>
-  </si>
-  <si>
-    <t>[-0.3519788384437561]</t>
-  </si>
-  <si>
-    <t>[0.06365085393190384]</t>
-  </si>
-  <si>
-    <t>[0.0713101476430893]</t>
-  </si>
-  <si>
-    <t>[-0.2617262601852417]</t>
-  </si>
-  <si>
-    <t>[0.09228064119815826]</t>
-  </si>
-  <si>
-    <t>[-0.6580128073692322]</t>
-  </si>
-  <si>
-    <t>[-0.10694214701652527]</t>
-  </si>
-  <si>
-    <t>[0.040521569550037384]</t>
-  </si>
-  <si>
-    <t>[-0.4280441403388977]</t>
-  </si>
-  <si>
-    <t>[0.07498002797365189]</t>
-  </si>
-  <si>
-    <t>[-0.377462238073349]</t>
-  </si>
-  <si>
-    <t>[0.09339359402656555]</t>
-  </si>
-  <si>
-    <t>[0.3548898994922638]</t>
-  </si>
-  <si>
-    <t>[0.29425033926963806]</t>
-  </si>
-  <si>
-    <t>[0.004314160905778408]</t>
-  </si>
-  <si>
-    <t>[0.11378489434719086]</t>
-  </si>
-  <si>
-    <t>[-0.04907111078500748]</t>
-  </si>
-  <si>
-    <t>[0.4523904025554657]</t>
-  </si>
-  <si>
-    <t>[-0.09839393943548203]</t>
-  </si>
-  <si>
-    <t>[0.18325436115264893]</t>
-  </si>
-  <si>
-    <t>[-0.37877920269966125]</t>
-  </si>
-  <si>
-    <t>[0.11717503517866135]</t>
-  </si>
-  <si>
-    <t>[0.6435015797615051]</t>
-  </si>
-  <si>
-    <t>[0.2779347002506256]</t>
-  </si>
-  <si>
-    <t>[0.16370071470737457]</t>
-  </si>
-  <si>
-    <t>[0.0796574130654335]</t>
-  </si>
-  <si>
-    <t>[-0.39508056640625]</t>
-  </si>
-  <si>
-    <t>[0.030237173661589622]</t>
-  </si>
-  <si>
-    <t>[0.07189470529556274]</t>
-  </si>
-  <si>
-    <t>[0.34910848736763]</t>
+    <t>[-0.09270888566970825]</t>
+  </si>
+  <si>
+    <t>[-0.19081027805805206]</t>
+  </si>
+  <si>
+    <t>[0.019049689173698425]</t>
+  </si>
+  <si>
+    <t>[0.030156413093209267]</t>
+  </si>
+  <si>
+    <t>[-0.19798016548156738]</t>
+  </si>
+  <si>
+    <t>[-0.13693022727966309]</t>
+  </si>
+  <si>
+    <t>[0.2143213003873825]</t>
+  </si>
+  <si>
+    <t>[-0.33947113156318665]</t>
+  </si>
+  <si>
+    <t>[0.02564314939081669]</t>
+  </si>
+  <si>
+    <t>[-0.15074706077575684]</t>
+  </si>
+  <si>
+    <t>[0.017753222957253456]</t>
+  </si>
+  <si>
+    <t>[-0.05163490027189255]</t>
+  </si>
+  <si>
+    <t>[-0.03899510204792023]</t>
+  </si>
+  <si>
+    <t>[-0.01671307533979416]</t>
+  </si>
+  <si>
+    <t>[0.04367763549089432]</t>
+  </si>
+  <si>
+    <t>[0.10588777810335159]</t>
+  </si>
+  <si>
+    <t>[-0.04359212517738342]</t>
+  </si>
+  <si>
+    <t>[-0.0687214732170105]</t>
+  </si>
+  <si>
+    <t>[-0.055414192378520966]</t>
+  </si>
+  <si>
+    <t>[0.03138911351561546]</t>
+  </si>
+  <si>
+    <t>[-0.09625080227851868]</t>
+  </si>
+  <si>
+    <t>[0.1454709768295288]</t>
+  </si>
+  <si>
+    <t>[-0.11518104374408722]</t>
+  </si>
+  <si>
+    <t>[0.052041005343198776]</t>
+  </si>
+  <si>
+    <t>[0.24387702345848083]</t>
+  </si>
+  <si>
+    <t>[-0.3313063085079193]</t>
+  </si>
+  <si>
+    <t>[-0.15645618736743927]</t>
+  </si>
+  <si>
+    <t>[0.15362001955509186]</t>
+  </si>
+  <si>
+    <t>[-0.04716658964753151]</t>
+  </si>
+  <si>
+    <t>[0.10832172632217407]</t>
+  </si>
+  <si>
+    <t>[-0.01421303953975439]</t>
+  </si>
+  <si>
+    <t>[-0.11001410335302353]</t>
+  </si>
+  <si>
+    <t>[-0.19659540057182312]</t>
+  </si>
+  <si>
+    <t>[0.12119071185588837]</t>
+  </si>
+  <si>
+    <t>[0.3984438180923462]</t>
+  </si>
+  <si>
+    <t>[0.254973828792572]</t>
+  </si>
+  <si>
+    <t>[0.008509163744747639]</t>
+  </si>
+  <si>
+    <t>[0.18150800466537476]</t>
+  </si>
+  <si>
+    <t>[-0.05132024735212326]</t>
+  </si>
+  <si>
+    <t>[-0.1029738113284111]</t>
+  </si>
+  <si>
+    <t>[0.04444216191768646]</t>
+  </si>
+  <si>
+    <t>[-0.13796678185462952]</t>
+  </si>
+  <si>
+    <t>[-0.19797635078430176]</t>
+  </si>
+  <si>
+    <t>[0.13920210301876068]</t>
+  </si>
+  <si>
+    <t>[-0.018422890454530716]</t>
+  </si>
+  <si>
+    <t>[-0.024143390357494354]</t>
+  </si>
+  <si>
+    <t>[0.19984416663646698]</t>
+  </si>
+  <si>
+    <t>[0.04865087941288948]</t>
+  </si>
+  <si>
+    <t>[0.09451108425855637]</t>
+  </si>
+  <si>
+    <t>[-0.11857715249061584]</t>
+  </si>
+  <si>
+    <t>[0.2623381018638611]</t>
+  </si>
+  <si>
+    <t>[0.3056880533695221]</t>
+  </si>
+  <si>
+    <t>[0.13014328479766846]</t>
+  </si>
+  <si>
+    <t>[0.12034822255373001]</t>
+  </si>
+  <si>
+    <t>[0.0921577662229538]</t>
+  </si>
+  <si>
+    <t>[0.17414884269237518]</t>
+  </si>
+  <si>
+    <t>[-0.025958038866519928]</t>
+  </si>
+  <si>
+    <t>[0.11392830312252045]</t>
+  </si>
+  <si>
+    <t>[0.12297708541154861]</t>
+  </si>
+  <si>
+    <t>[0.1924148052930832]</t>
+  </si>
+  <si>
+    <t>[-0.15453040599822998]</t>
+  </si>
+  <si>
+    <t>[0.13836462795734406]</t>
+  </si>
+  <si>
+    <t>[-0.11953423917293549]</t>
+  </si>
+  <si>
+    <t>[0.021488647907972336]</t>
+  </si>
+  <si>
+    <t>[-0.09274639934301376]</t>
+  </si>
+  <si>
+    <t>[-0.1760476678609848]</t>
+  </si>
+  <si>
+    <t>[0.039739225059747696]</t>
+  </si>
+  <si>
+    <t>[-0.04004442319273949]</t>
+  </si>
+  <si>
+    <t>[-0.10250268876552582]</t>
+  </si>
+  <si>
+    <t>[-0.08863789588212967]</t>
+  </si>
+  <si>
+    <t>[0.0670631006360054]</t>
+  </si>
+  <si>
+    <t>[-0.019901754334568977]</t>
+  </si>
+  <si>
+    <t>[0.2879813611507416]</t>
+  </si>
+  <si>
+    <t>[0.28711357712745667]</t>
+  </si>
+  <si>
+    <t>[0.03679430112242699]</t>
+  </si>
+  <si>
+    <t>[0.20876990258693695]</t>
+  </si>
+  <si>
+    <t>[-0.005102602764964104]</t>
+  </si>
+  <si>
+    <t>[0.08172491937875748]</t>
+  </si>
+  <si>
+    <t>[0.17601923644542694]</t>
+  </si>
+  <si>
+    <t>[-0.025437526404857635]</t>
+  </si>
+  <si>
+    <t>[0.036127716302871704]</t>
+  </si>
+  <si>
+    <t>[-0.20388084650039673]</t>
+  </si>
+  <si>
+    <t>[0.039981476962566376]</t>
+  </si>
+  <si>
+    <t>[0.39376237988471985]</t>
+  </si>
+  <si>
+    <t>[-0.005441219545900822]</t>
+  </si>
+  <si>
+    <t>[-0.11596912145614624]</t>
+  </si>
+  <si>
+    <t>[-0.02400246262550354]</t>
+  </si>
+  <si>
+    <t>[0.15184372663497925]</t>
+  </si>
+  <si>
+    <t>[0.07957835495471954]</t>
+  </si>
+  <si>
+    <t>[0.20902696251869202]</t>
+  </si>
+  <si>
+    <t>[-0.14046503603458405]</t>
+  </si>
+  <si>
+    <t>[0.15473723411560059]</t>
+  </si>
+  <si>
+    <t>[0.09029188752174377]</t>
+  </si>
+  <si>
+    <t>[0.1425493061542511]</t>
+  </si>
+  <si>
+    <t>[0.020023956894874573]</t>
+  </si>
+  <si>
+    <t>[0.25727519392967224]</t>
+  </si>
+  <si>
+    <t>[0.05224618315696716]</t>
+  </si>
+  <si>
+    <t>[0.1842300444841385]</t>
+  </si>
+  <si>
+    <t>[0.19861061871051788]</t>
+  </si>
+  <si>
+    <t>[-0.05039361119270325]</t>
+  </si>
+  <si>
+    <t>[0.1352088749408722]</t>
+  </si>
+  <si>
+    <t>[0.06751301139593124]</t>
+  </si>
+  <si>
+    <t>[-0.2558233439922333]</t>
+  </si>
+  <si>
+    <t>[0.10984630882740021]</t>
+  </si>
+  <si>
+    <t>[-0.08613754063844681]</t>
+  </si>
+  <si>
+    <t>[0.04967402666807175]</t>
+  </si>
+  <si>
+    <t>[0.17815150320529938]</t>
+  </si>
+  <si>
+    <t>[0.1101340800523758]</t>
+  </si>
+  <si>
+    <t>[0.25075599551200867]</t>
+  </si>
+  <si>
+    <t>[0.1742234230041504]</t>
+  </si>
+  <si>
+    <t>[-0.012125317007303238]</t>
+  </si>
+  <si>
+    <t>[-0.07588496059179306]</t>
+  </si>
+  <si>
+    <t>[0.05676015466451645]</t>
+  </si>
+  <si>
+    <t>[-0.08493787795305252]</t>
+  </si>
+  <si>
+    <t>[0.20012570917606354]</t>
+  </si>
+  <si>
+    <t>[0.03862105682492256]</t>
+  </si>
+  <si>
+    <t>[-0.4056816101074219]</t>
+  </si>
+  <si>
+    <t>[0.12011480331420898]</t>
+  </si>
+  <si>
+    <t>[0.08175407350063324]</t>
+  </si>
+  <si>
+    <t>[-0.20458261668682098]</t>
+  </si>
+  <si>
+    <t>[0.0996410921216011]</t>
+  </si>
+  <si>
+    <t>[-0.15291444957256317]</t>
+  </si>
+  <si>
+    <t>[-0.11238505691289902]</t>
+  </si>
+  <si>
+    <t>[-0.24399425089359283]</t>
+  </si>
+  <si>
+    <t>[-0.012219440191984177]</t>
+  </si>
+  <si>
+    <t>[0.035131145268678665]</t>
+  </si>
+  <si>
+    <t>[-0.18832315504550934]</t>
+  </si>
+  <si>
+    <t>[-0.004467315040528774]</t>
+  </si>
+  <si>
+    <t>[0.09420003741979599]</t>
+  </si>
+  <si>
+    <t>[0.014400971122086048]</t>
+  </si>
+  <si>
+    <t>[-0.0896652489900589]</t>
+  </si>
+  <si>
+    <t>[-0.013075390830636024]</t>
+  </si>
+  <si>
+    <t>[-0.3077090382575989]</t>
+  </si>
+  <si>
+    <t>[0.3376106917858124]</t>
+  </si>
+  <si>
+    <t>[0.022529834881424904]</t>
+  </si>
+  <si>
+    <t>[-0.047232337296009064]</t>
+  </si>
+  <si>
+    <t>[0.0007650480256415904]</t>
+  </si>
+  <si>
+    <t>[-0.037016283720731735]</t>
+  </si>
+  <si>
+    <t>[-0.086103156208992]</t>
+  </si>
+  <si>
+    <t>[-0.04708552360534668]</t>
+  </si>
+  <si>
+    <t>[-0.13828420639038086]</t>
+  </si>
+  <si>
+    <t>[0.09295974671840668]</t>
+  </si>
+  <si>
+    <t>[0.07567280530929565]</t>
+  </si>
+  <si>
+    <t>[-0.008936120197176933]</t>
+  </si>
+  <si>
+    <t>[-0.13274620473384857]</t>
+  </si>
+  <si>
+    <t>[0.15514272451400757]</t>
+  </si>
+  <si>
+    <t>[0.18325307965278625]</t>
+  </si>
+  <si>
+    <t>[0.021299943327903748]</t>
+  </si>
+  <si>
+    <t>[0.1483553946018219]</t>
+  </si>
+  <si>
+    <t>[0.22068044543266296]</t>
+  </si>
+  <si>
+    <t>[0.08008428663015366]</t>
+  </si>
+  <si>
+    <t>[-0.2626086473464966]</t>
+  </si>
+  <si>
+    <t>[0.2652423083782196]</t>
+  </si>
+  <si>
+    <t>[0.006742202211171389]</t>
+  </si>
+  <si>
+    <t>[0.06865635514259338]</t>
+  </si>
+  <si>
+    <t>[-0.008792468346655369]</t>
+  </si>
+  <si>
+    <t>[-0.09141624718904495]</t>
+  </si>
+  <si>
+    <t>[0.021258335560560226]</t>
+  </si>
+  <si>
+    <t>[-0.24118272960186005]</t>
+  </si>
+  <si>
+    <t>[0.14786817133426666]</t>
+  </si>
+  <si>
+    <t>[-0.03370662033557892]</t>
+  </si>
+  <si>
+    <t>[0.0729433223605156]</t>
+  </si>
+  <si>
+    <t>[0.06508096307516098]</t>
+  </si>
+  <si>
+    <t>[0.21432064473628998]</t>
+  </si>
+  <si>
+    <t>[0.19116730988025665]</t>
+  </si>
+  <si>
+    <t>[0.06613054126501083]</t>
+  </si>
+  <si>
+    <t>[0.11721834540367126]</t>
+  </si>
+  <si>
+    <t>[0.01862018182873726]</t>
+  </si>
+  <si>
+    <t>[0.1913243979215622]</t>
+  </si>
+  <si>
+    <t>[-0.02901524119079113]</t>
+  </si>
+  <si>
+    <t>[0.11890711635351181]</t>
+  </si>
+  <si>
+    <t>[-0.14042620360851288]</t>
+  </si>
+  <si>
+    <t>[0.062352705746889114]</t>
+  </si>
+  <si>
+    <t>[0.024979878216981888]</t>
+  </si>
+  <si>
+    <t>[-0.02427166886627674]</t>
+  </si>
+  <si>
+    <t>[0.09994672983884811]</t>
+  </si>
+  <si>
+    <t>[0.0872056856751442]</t>
+  </si>
+  <si>
+    <t>[0.19050361216068268]</t>
+  </si>
+  <si>
+    <t>[-0.05821216106414795]</t>
+  </si>
+  <si>
+    <t>[0.38968005776405334]</t>
+  </si>
+  <si>
+    <t>[-0.07858262211084366]</t>
+  </si>
+  <si>
+    <t>[-0.039438396692276]</t>
+  </si>
+  <si>
+    <t>[-0.08665116131305695]</t>
+  </si>
+  <si>
+    <t>[-0.14615397155284882]</t>
+  </si>
+  <si>
+    <t>[0.03332354873418808]</t>
+  </si>
+  <si>
+    <t>[-0.16053247451782227]</t>
+  </si>
+  <si>
+    <t>[0.4251174330711365]</t>
+  </si>
+  <si>
+    <t>[0.2533709704875946]</t>
+  </si>
+  <si>
+    <t>[-0.33617743849754333]</t>
+  </si>
+  <si>
+    <t>[-0.025001762434840202]</t>
+  </si>
+  <si>
+    <t>[0.4140607416629791]</t>
+  </si>
+  <si>
+    <t>[-0.028011320158839226]</t>
+  </si>
+  <si>
+    <t>[0.202176034450531]</t>
+  </si>
+  <si>
+    <t>[-0.14633697271347046]</t>
+  </si>
+  <si>
+    <t>[-0.08006879687309265]</t>
+  </si>
+  <si>
+    <t>[0.35528257489204407]</t>
+  </si>
+  <si>
+    <t>[-0.18037696182727814]</t>
+  </si>
+  <si>
+    <t>[0.10438912361860275]</t>
+  </si>
+  <si>
+    <t>[0.04370110109448433]</t>
+  </si>
+  <si>
+    <t>[0.3057345151901245]</t>
+  </si>
+  <si>
+    <t>[0.11616332083940506]</t>
+  </si>
+  <si>
+    <t>[0.14690746366977692]</t>
+  </si>
+  <si>
+    <t>[0.04472929239273071]</t>
+  </si>
+  <si>
+    <t>[-0.0378277525305748]</t>
+  </si>
+  <si>
+    <t>[-0.12960734963417053]</t>
+  </si>
+  <si>
+    <t>[0.09317602962255478]</t>
+  </si>
+  <si>
+    <t>[-0.12409573793411255]</t>
+  </si>
+  <si>
+    <t>[0.06413797289133072]</t>
+  </si>
+  <si>
+    <t>[0.24494695663452148]</t>
+  </si>
+  <si>
+    <t>[0.20134618878364563]</t>
+  </si>
+  <si>
+    <t>[-0.04209790751338005]</t>
+  </si>
+  <si>
+    <t>[-0.09148544073104858]</t>
+  </si>
+  <si>
+    <t>[0.11139898002147675]</t>
+  </si>
+  <si>
+    <t>[0.26323023438453674]</t>
+  </si>
+  <si>
+    <t>[0.10908138751983643]</t>
+  </si>
+  <si>
+    <t>[-0.03458099067211151]</t>
+  </si>
+  <si>
+    <t>[0.23578637838363647]</t>
+  </si>
+  <si>
+    <t>[-0.07928729802370071]</t>
+  </si>
+  <si>
+    <t>[-0.2443220019340515]</t>
+  </si>
+  <si>
+    <t>[-0.15422403812408447]</t>
+  </si>
+  <si>
+    <t>[0.0020504952408373356]</t>
+  </si>
+  <si>
+    <t>[0.05557331070303917]</t>
+  </si>
+  <si>
+    <t>[0.0060437023639678955]</t>
+  </si>
+  <si>
+    <t>[-0.14978092908859253]</t>
+  </si>
+  <si>
+    <t>[-0.14565856754779816]</t>
+  </si>
+  <si>
+    <t>[0.13122044503688812]</t>
+  </si>
+  <si>
+    <t>[0.18709179759025574]</t>
+  </si>
+  <si>
+    <t>[0.025383735075592995]</t>
+  </si>
+  <si>
+    <t>[-0.05989948287606239]</t>
+  </si>
+  <si>
+    <t>[-0.2294556349515915]</t>
+  </si>
+  <si>
+    <t>[-0.16566886007785797]</t>
+  </si>
+  <si>
+    <t>[-0.27815791964530945]</t>
+  </si>
+  <si>
+    <t>[0.049105338752269745]</t>
+  </si>
+  <si>
+    <t>[0.16494598984718323]</t>
+  </si>
+  <si>
+    <t>[0.11085614562034607]</t>
+  </si>
+  <si>
+    <t>[0.09983433783054352]</t>
+  </si>
+  <si>
+    <t>[0.11241184175014496]</t>
+  </si>
+  <si>
+    <t>[0.09696634113788605]</t>
+  </si>
+  <si>
+    <t>[-0.2580735981464386]</t>
+  </si>
+  <si>
+    <t>[-0.22062274813652039]</t>
+  </si>
+  <si>
+    <t>[-0.19284433126449585]</t>
+  </si>
+  <si>
+    <t>[0.04547372832894325]</t>
+  </si>
+  <si>
+    <t>[-0.05771864205598831]</t>
+  </si>
+  <si>
+    <t>[0.31561535596847534]</t>
+  </si>
+  <si>
+    <t>[-0.15221452713012695]</t>
+  </si>
+  <si>
+    <t>[0.20315000414848328]</t>
+  </si>
+  <si>
+    <t>[0.09707533568143845]</t>
+  </si>
+  <si>
+    <t>[-0.05402539670467377]</t>
+  </si>
+  <si>
+    <t>[0.05603507161140442]</t>
+  </si>
+  <si>
+    <t>[0.1335757076740265]</t>
+  </si>
+  <si>
+    <t>[-0.1623312085866928]</t>
+  </si>
+  <si>
+    <t>[-0.02840663120150566]</t>
+  </si>
+  <si>
+    <t>[0.08318868279457092]</t>
+  </si>
+  <si>
+    <t>[-0.12935838103294373]</t>
+  </si>
+  <si>
+    <t>[-0.11616741865873337]</t>
+  </si>
+  <si>
+    <t>[0.394225537776947]</t>
+  </si>
+  <si>
+    <t>[-0.11879785358905792]</t>
+  </si>
+  <si>
+    <t>[-0.028682459145784378]</t>
+  </si>
+  <si>
+    <t>[0.19010159373283386]</t>
+  </si>
+  <si>
+    <t>[-0.16279475390911102]</t>
+  </si>
+  <si>
+    <t>[0.06317396461963654]</t>
+  </si>
+  <si>
+    <t>[-0.024952765554189682]</t>
+  </si>
+  <si>
+    <t>[-0.4132647216320038]</t>
+  </si>
+  <si>
+    <t>[0.0035425317473709583]</t>
+  </si>
+  <si>
+    <t>[0.08121168613433838]</t>
+  </si>
+  <si>
+    <t>[0.12276728451251984]</t>
+  </si>
+  <si>
+    <t>[0.22920957207679749]</t>
+  </si>
+  <si>
+    <t>[0.06255609542131424]</t>
+  </si>
+  <si>
+    <t>[-0.04921521991491318]</t>
+  </si>
+  <si>
+    <t>[0.13227854669094086]</t>
+  </si>
+  <si>
+    <t>[-0.20254452526569366]</t>
+  </si>
+  <si>
+    <t>[-0.25019341707229614]</t>
+  </si>
+  <si>
+    <t>[-0.11625982075929642]</t>
+  </si>
+  <si>
+    <t>[-0.09530417621135712]</t>
+  </si>
+  <si>
+    <t>[-0.18417854607105255]</t>
+  </si>
+  <si>
+    <t>[0.12180686742067337]</t>
+  </si>
+  <si>
+    <t>[-0.028590215370059013]</t>
+  </si>
+  <si>
+    <t>[0.21638020873069763]</t>
+  </si>
+  <si>
+    <t>[-0.21165604889392853]</t>
+  </si>
+  <si>
+    <t>[-0.06636795401573181]</t>
+  </si>
+  <si>
+    <t>[0.17917484045028687]</t>
+  </si>
+  <si>
+    <t>[-0.0036941205617040396]</t>
+  </si>
+  <si>
+    <t>[0.15425406396389008]</t>
+  </si>
+  <si>
+    <t>[0.12538334727287292]</t>
+  </si>
+  <si>
+    <t>[-0.04588405415415764]</t>
+  </si>
+  <si>
+    <t>[-0.09003113210201263]</t>
+  </si>
+  <si>
+    <t>[0.03875784948468208]</t>
+  </si>
+  <si>
+    <t>[-0.26508161425590515]</t>
+  </si>
+  <si>
+    <t>[0.09872261434793472]</t>
+  </si>
+  <si>
+    <t>[0.10377632081508636]</t>
+  </si>
+  <si>
+    <t>[0.01170103158801794]</t>
+  </si>
+  <si>
+    <t>[-0.1388687789440155]</t>
+  </si>
+  <si>
+    <t>[-0.17313481867313385]</t>
+  </si>
+  <si>
+    <t>[0.14921516180038452]</t>
+  </si>
+  <si>
+    <t>[0.18068605661392212]</t>
+  </si>
+  <si>
+    <t>[-0.13872697949409485]</t>
+  </si>
+  <si>
+    <t>[0.12421339005231857]</t>
+  </si>
+  <si>
+    <t>[-0.17857667803764343]</t>
+  </si>
+  <si>
+    <t>[0.040005020797252655]</t>
+  </si>
+  <si>
+    <t>[-0.007305644452571869]</t>
+  </si>
+  <si>
+    <t>[0.15097613632678986]</t>
+  </si>
+  <si>
+    <t>[-0.02372584119439125]</t>
+  </si>
+  <si>
+    <t>[-0.0007620271062478423]</t>
+  </si>
+  <si>
+    <t>[0.15055681765079498]</t>
+  </si>
+  <si>
+    <t>[0.25736987590789795]</t>
+  </si>
+  <si>
+    <t>[-0.13915108144283295]</t>
+  </si>
+  <si>
+    <t>[-0.1592860221862793]</t>
+  </si>
+  <si>
+    <t>[0.12595541775226593]</t>
+  </si>
+  <si>
+    <t>[0.00506585231050849]</t>
+  </si>
+  <si>
+    <t>[-0.08488119393587112]</t>
+  </si>
+  <si>
+    <t>[-0.03824583813548088]</t>
+  </si>
+  <si>
+    <t>[-0.22794222831726074]</t>
+  </si>
+  <si>
+    <t>[-0.3653721511363983]</t>
+  </si>
+  <si>
+    <t>[0.02470828965306282]</t>
+  </si>
+  <si>
+    <t>[0.05689295381307602]</t>
+  </si>
+  <si>
+    <t>[-0.11679930984973907]</t>
+  </si>
+  <si>
+    <t>[0.23452086746692657]</t>
+  </si>
+  <si>
+    <t>[0.028541211038827896]</t>
+  </si>
+  <si>
+    <t>[-0.03909594565629959]</t>
+  </si>
+  <si>
+    <t>[-0.07929667085409164]</t>
+  </si>
+  <si>
+    <t>[0.1799231916666031]</t>
+  </si>
+  <si>
+    <t>[-0.1938207745552063]</t>
+  </si>
+  <si>
+    <t>[0.14217282831668854]</t>
+  </si>
+  <si>
+    <t>[0.04671016335487366]</t>
+  </si>
+  <si>
+    <t>[0.13536107540130615]</t>
+  </si>
+  <si>
+    <t>[-0.16206476092338562]</t>
+  </si>
+  <si>
+    <t>[0.2516529858112335]</t>
+  </si>
+  <si>
+    <t>[-0.1430443823337555]</t>
+  </si>
+  <si>
+    <t>[-0.41735678911209106]</t>
+  </si>
+  <si>
+    <t>[0.26477083563804626]</t>
+  </si>
+  <si>
+    <t>[-0.15722604095935822]</t>
+  </si>
+  <si>
+    <t>[-0.14885880053043365]</t>
+  </si>
+  <si>
+    <t>[0.12558725476264954]</t>
+  </si>
+  <si>
+    <t>[0.1270689219236374]</t>
+  </si>
+  <si>
+    <t>[-0.4754273593425751]</t>
+  </si>
+  <si>
+    <t>[0.06611766666173935]</t>
+  </si>
+  <si>
+    <t>[-0.15085911750793457]</t>
+  </si>
+  <si>
+    <t>[0.05905064567923546]</t>
+  </si>
+  <si>
+    <t>[-0.1012035459280014]</t>
+  </si>
+  <si>
+    <t>[-0.04948313161730766]</t>
+  </si>
+  <si>
+    <t>[-0.11791489273309708]</t>
+  </si>
+  <si>
+    <t>[-0.09898492693901062]</t>
+  </si>
+  <si>
+    <t>[-0.20947584509849548]</t>
+  </si>
+  <si>
+    <t>[-0.10075799375772476]</t>
+  </si>
+  <si>
+    <t>[0.05210159346461296]</t>
+  </si>
+  <si>
+    <t>[0.05555077642202377]</t>
+  </si>
+  <si>
+    <t>[0.014039505273103714]</t>
+  </si>
+  <si>
+    <t>[-0.36905112862586975]</t>
+  </si>
+  <si>
+    <t>[0.17820633947849274]</t>
+  </si>
+  <si>
+    <t>[0.05134353041648865]</t>
+  </si>
+  <si>
+    <t>[-0.009737104177474976]</t>
+  </si>
+  <si>
+    <t>[0.0502447783946991]</t>
+  </si>
+  <si>
+    <t>[0.42905738949775696]</t>
+  </si>
+  <si>
+    <t>[-0.21673545241355896]</t>
+  </si>
+  <si>
+    <t>[-0.13799116015434265]</t>
+  </si>
+  <si>
+    <t>[-0.2467675805091858]</t>
+  </si>
+  <si>
+    <t>[-0.046044353395700455]</t>
+  </si>
+  <si>
+    <t>[-0.1525779664516449]</t>
+  </si>
+  <si>
+    <t>[0.029245605692267418]</t>
+  </si>
+  <si>
+    <t>[0.03671281784772873]</t>
+  </si>
+  <si>
+    <t>[0.1564958542585373]</t>
+  </si>
+  <si>
+    <t>[0.025159351527690887]</t>
+  </si>
+  <si>
+    <t>[0.06669692695140839]</t>
+  </si>
+  <si>
+    <t>[0.14669828116893768]</t>
+  </si>
+  <si>
+    <t>[-0.09645084291696548]</t>
+  </si>
+  <si>
+    <t>[-0.023716982454061508]</t>
+  </si>
+  <si>
+    <t>[0.08861392736434937]</t>
+  </si>
+  <si>
+    <t>[0.202107235789299]</t>
+  </si>
+  <si>
+    <t>[-0.04748376086354256]</t>
+  </si>
+  <si>
+    <t>[0.014174757525324821]</t>
+  </si>
+  <si>
+    <t>[-0.07773731648921967]</t>
+  </si>
+  <si>
+    <t>[-0.03880014270544052]</t>
+  </si>
+  <si>
+    <t>[0.0691898837685585]</t>
+  </si>
+  <si>
+    <t>[0.0010377573780715466]</t>
+  </si>
+  <si>
+    <t>[-0.18039241433143616]</t>
+  </si>
+  <si>
+    <t>[-0.15416491031646729]</t>
+  </si>
+  <si>
+    <t>[-0.12742219865322113]</t>
+  </si>
+  <si>
+    <t>[0.308112233877182]</t>
+  </si>
+  <si>
+    <t>[0.05276166647672653]</t>
+  </si>
+  <si>
+    <t>[-0.10150893032550812]</t>
+  </si>
+  <si>
+    <t>[0.030066736042499542]</t>
+  </si>
+  <si>
+    <t>[-0.05429203063249588]</t>
+  </si>
+  <si>
+    <t>[0.15119092166423798]</t>
+  </si>
+  <si>
+    <t>[0.22034694254398346]</t>
+  </si>
+  <si>
+    <t>[0.08495384454727173]</t>
+  </si>
+  <si>
+    <t>[-0.048516858369112015]</t>
+  </si>
+  <si>
+    <t>[-0.026660747826099396]</t>
+  </si>
+  <si>
+    <t>[-0.08012654632329941]</t>
+  </si>
+  <si>
+    <t>[0.218171626329422]</t>
+  </si>
+  <si>
+    <t>[-0.15362319350242615]</t>
+  </si>
+  <si>
+    <t>[-0.1730060875415802]</t>
+  </si>
+  <si>
+    <t>[0.21491962671279907]</t>
+  </si>
+  <si>
+    <t>[0.08432044088840485]</t>
+  </si>
+  <si>
+    <t>[0.14053885638713837]</t>
+  </si>
+  <si>
+    <t>[-0.09068784862756729]</t>
+  </si>
+  <si>
+    <t>[0.02308165468275547]</t>
+  </si>
+  <si>
+    <t>[-0.017542395740747452]</t>
+  </si>
+  <si>
+    <t>[-0.1485469788312912]</t>
+  </si>
+  <si>
+    <t>[-0.2177528738975525]</t>
+  </si>
+  <si>
+    <t>[0.02214621938765049]</t>
+  </si>
+  <si>
+    <t>[0.025894848629832268]</t>
+  </si>
+  <si>
+    <t>[-0.2043607532978058]</t>
+  </si>
+  <si>
+    <t>[0.2756039798259735]</t>
+  </si>
+  <si>
+    <t>[0.29597729444503784]</t>
+  </si>
+  <si>
+    <t>[-0.13079474866390228]</t>
+  </si>
+  <si>
+    <t>[0.21949298679828644]</t>
+  </si>
+  <si>
+    <t>[-0.20186476409435272]</t>
+  </si>
+  <si>
+    <t>[-0.005675370339304209]</t>
+  </si>
+  <si>
+    <t>[-0.06135675683617592]</t>
+  </si>
+  <si>
+    <t>[-0.0942479744553566]</t>
+  </si>
+  <si>
+    <t>[0.2383141815662384]</t>
+  </si>
+  <si>
+    <t>[0.06437332183122635]</t>
+  </si>
+  <si>
+    <t>[-0.003714338643476367]</t>
+  </si>
+  <si>
+    <t>[0.033671535551548004]</t>
+  </si>
+  <si>
+    <t>[0.14019234478473663]</t>
+  </si>
+  <si>
+    <t>[-0.13572369515895844]</t>
+  </si>
+  <si>
+    <t>[-0.23384219408035278]</t>
+  </si>
+  <si>
+    <t>[0.01782114990055561]</t>
+  </si>
+  <si>
+    <t>[0.10526157170534134]</t>
+  </si>
+  <si>
+    <t>[0.0070958989672362804]</t>
+  </si>
+  <si>
+    <t>[-0.37609681487083435]</t>
+  </si>
+  <si>
+    <t>[-0.04236424341797829]</t>
+  </si>
+  <si>
+    <t>[0.21183732151985168]</t>
+  </si>
+  <si>
+    <t>[-0.14981156587600708]</t>
+  </si>
+  <si>
+    <t>[0.17285266518592834]</t>
+  </si>
+  <si>
+    <t>[-0.03192871809005737]</t>
+  </si>
+  <si>
+    <t>[0.19437207281589508]</t>
+  </si>
+  <si>
+    <t>[0.24253502488136292]</t>
+  </si>
+  <si>
+    <t>[0.06925588101148605]</t>
+  </si>
+  <si>
+    <t>[-0.2545757293701172]</t>
+  </si>
+  <si>
+    <t>[0.1060037612915039]</t>
+  </si>
+  <si>
+    <t>[0.29464101791381836]</t>
+  </si>
+  <si>
+    <t>[-0.09181907027959824]</t>
+  </si>
+  <si>
+    <t>[-0.05994227156043053]</t>
+  </si>
+  <si>
+    <t>[0.0979347825050354]</t>
+  </si>
+  <si>
+    <t>[-0.23183250427246094]</t>
+  </si>
+  <si>
+    <t>[-0.1830267459154129]</t>
+  </si>
+  <si>
+    <t>[0.12197767198085785]</t>
+  </si>
+  <si>
+    <t>[0.16013017296791077]</t>
+  </si>
+  <si>
+    <t>[0.06707722693681717]</t>
+  </si>
+  <si>
+    <t>[-0.3118024170398712]</t>
+  </si>
+  <si>
+    <t>[0.2091847062110901]</t>
+  </si>
+  <si>
+    <t>[0.18744662404060364]</t>
+  </si>
+  <si>
+    <t>[0.10415205359458923]</t>
+  </si>
+  <si>
+    <t>[0.024156149476766586]</t>
+  </si>
+  <si>
+    <t>[0.270761638879776]</t>
+  </si>
+  <si>
+    <t>[-0.0549192801117897]</t>
+  </si>
+  <si>
+    <t>[0.04024587944149971]</t>
+  </si>
+  <si>
+    <t>[0.13979992270469666]</t>
+  </si>
+  <si>
+    <t>[0.03528093546628952]</t>
+  </si>
+  <si>
+    <t>[-0.08679861575365067]</t>
+  </si>
+  <si>
+    <t>[-0.008791208267211914]</t>
+  </si>
+  <si>
+    <t>[0.3248870372772217]</t>
+  </si>
+  <si>
+    <t>[-0.07477017492055893]</t>
+  </si>
+  <si>
+    <t>[-0.1623178869485855]</t>
+  </si>
+  <si>
+    <t>[-0.07883145660161972]</t>
+  </si>
+  <si>
+    <t>[-0.22894297540187836]</t>
+  </si>
+  <si>
+    <t>[0.095940500497818]</t>
+  </si>
+  <si>
+    <t>[-0.0015722595853731036]</t>
+  </si>
+  <si>
+    <t>[-0.19899429380893707]</t>
+  </si>
+  <si>
+    <t>[-0.15885040163993835]</t>
+  </si>
+  <si>
+    <t>[0.032736703753471375]</t>
+  </si>
+  <si>
+    <t>[0.11146094650030136]</t>
+  </si>
+  <si>
+    <t>[-0.1580228954553604]</t>
+  </si>
+  <si>
+    <t>[0.251341313123703]</t>
+  </si>
+  <si>
+    <t>[0.0937650129199028]</t>
+  </si>
+  <si>
+    <t>[0.03521713241934776]</t>
+  </si>
+  <si>
+    <t>[-0.24709098041057587]</t>
+  </si>
+  <si>
+    <t>[0.06274361908435822]</t>
+  </si>
+  <si>
+    <t>[0.12041901051998138]</t>
+  </si>
+  <si>
+    <t>[-0.057607464492321014]</t>
+  </si>
+  <si>
+    <t>[0.016704244539141655]</t>
+  </si>
+  <si>
+    <t>[-0.25452905893325806]</t>
+  </si>
+  <si>
+    <t>[0.015186183154582977]</t>
+  </si>
+  <si>
+    <t>[-0.33856815099716187]</t>
+  </si>
+  <si>
+    <t>[-0.018452417105436325]</t>
+  </si>
+  <si>
+    <t>[0.12097754329442978]</t>
+  </si>
+  <si>
+    <t>[-0.15746645629405975]</t>
+  </si>
+  <si>
+    <t>[0.00017226813361048698]</t>
+  </si>
+  <si>
+    <t>[0.1758483499288559]</t>
+  </si>
+  <si>
+    <t>[-0.1370847374200821]</t>
+  </si>
+  <si>
+    <t>[0.0352853387594223]</t>
+  </si>
+  <si>
+    <t>[0.11304611712694168]</t>
+  </si>
+  <si>
+    <t>[-0.09799326211214066]</t>
+  </si>
+  <si>
+    <t>[0.3453417122364044]</t>
+  </si>
+  <si>
+    <t>[-0.021154101938009262]</t>
+  </si>
+  <si>
+    <t>[-0.26348137855529785]</t>
+  </si>
+  <si>
+    <t>[-0.23574452102184296]</t>
+  </si>
+  <si>
+    <t>[0.06504622101783752]</t>
+  </si>
+  <si>
+    <t>[-0.03366291522979736]</t>
+  </si>
+  <si>
+    <t>[0.20944711565971375]</t>
+  </si>
+  <si>
+    <t>[-0.038972221314907074]</t>
+  </si>
+  <si>
+    <t>[0.19428399205207825]</t>
+  </si>
+  <si>
+    <t>[-0.1966620683670044]</t>
+  </si>
+  <si>
+    <t>[-0.18447014689445496]</t>
+  </si>
+  <si>
+    <t>[0.22335708141326904]</t>
+  </si>
+  <si>
+    <t>[-0.13195344805717468]</t>
+  </si>
+  <si>
+    <t>[-0.16599468886852264]</t>
+  </si>
+  <si>
+    <t>[0.35821333527565]</t>
+  </si>
+  <si>
+    <t>[0.07569295167922974]</t>
+  </si>
+  <si>
+    <t>[0.22940877079963684]</t>
+  </si>
+  <si>
+    <t>[-0.01459287665784359]</t>
+  </si>
+  <si>
+    <t>[0.04021349549293518]</t>
+  </si>
+  <si>
+    <t>[-0.10748866200447083]</t>
+  </si>
+  <si>
+    <t>[0.2652283012866974]</t>
+  </si>
+  <si>
+    <t>[0.22539256513118744]</t>
+  </si>
+  <si>
+    <t>[-0.2996387779712677]</t>
+  </si>
+  <si>
+    <t>[0.09388632327318192]</t>
+  </si>
+  <si>
+    <t>[-0.191544771194458]</t>
+  </si>
+  <si>
+    <t>[-0.06723090261220932]</t>
+  </si>
+  <si>
+    <t>[0.05190065875649452]</t>
+  </si>
+  <si>
+    <t>[-0.03947674483060837]</t>
+  </si>
+  <si>
+    <t>[-0.1728421002626419]</t>
+  </si>
+  <si>
+    <t>[0.12518170475959778]</t>
+  </si>
+  <si>
+    <t>[0.14078769087791443]</t>
+  </si>
+  <si>
+    <t>[-0.0891745463013649]</t>
+  </si>
+  <si>
+    <t>[-0.18094363808631897]</t>
+  </si>
+  <si>
+    <t>[-0.21310213208198547]</t>
+  </si>
+  <si>
+    <t>[0.08623525500297546]</t>
+  </si>
+  <si>
+    <t>[0.07764646410942078]</t>
+  </si>
+  <si>
+    <t>[0.1043253019452095]</t>
+  </si>
+  <si>
+    <t>[-0.19059871137142181]</t>
+  </si>
+  <si>
+    <t>[-0.07074980437755585]</t>
+  </si>
+  <si>
+    <t>[0.1211499273777008]</t>
+  </si>
+  <si>
+    <t>[-0.010620263405144215]</t>
+  </si>
+  <si>
+    <t>[-0.011513295583426952]</t>
+  </si>
+  <si>
+    <t>[0.03423185274004936]</t>
+  </si>
+  <si>
+    <t>[-0.15982167422771454]</t>
+  </si>
+  <si>
+    <t>[0.04901961237192154]</t>
+  </si>
+  <si>
+    <t>[-0.15418989956378937]</t>
+  </si>
+  <si>
+    <t>[-0.06785956770181656]</t>
+  </si>
+  <si>
+    <t>[-0.11821287870407104]</t>
+  </si>
+  <si>
+    <t>[0.1518757939338684]</t>
+  </si>
+  <si>
+    <t>[0.05651403218507767]</t>
+  </si>
+  <si>
+    <t>[-0.2007647156715393]</t>
+  </si>
+  <si>
+    <t>[0.21694713830947876]</t>
+  </si>
+  <si>
+    <t>[0.14208507537841797]</t>
+  </si>
+  <si>
+    <t>[-0.053572289645671844]</t>
+  </si>
+  <si>
+    <t>[-0.14828729629516602]</t>
+  </si>
+  <si>
+    <t>[-0.14806783199310303]</t>
+  </si>
+  <si>
+    <t>[0.018695728853344917]</t>
+  </si>
+  <si>
+    <t>[-0.3274576961994171]</t>
+  </si>
+  <si>
+    <t>[0.014704125002026558]</t>
+  </si>
+  <si>
+    <t>[-0.11522655189037323]</t>
+  </si>
+  <si>
+    <t>[-0.3477535843849182]</t>
+  </si>
+  <si>
+    <t>[-0.038416288793087006]</t>
+  </si>
+  <si>
+    <t>[-0.12643283605575562]</t>
+  </si>
+  <si>
+    <t>[-0.056799981743097305]</t>
+  </si>
+  <si>
+    <t>[-0.1260201632976532]</t>
+  </si>
+  <si>
+    <t>[-0.18754112720489502]</t>
+  </si>
+  <si>
+    <t>[-0.23382951319217682]</t>
+  </si>
+  <si>
+    <t>[-0.25467950105667114]</t>
+  </si>
+  <si>
+    <t>[0.08595152944326401]</t>
+  </si>
+  <si>
+    <t>[0.10651037842035294]</t>
+  </si>
+  <si>
+    <t>[-0.1357300877571106]</t>
+  </si>
+  <si>
+    <t>[-0.03114216960966587]</t>
+  </si>
+  <si>
+    <t>[0.008613121695816517]</t>
+  </si>
+  <si>
+    <t>[0.18212975561618805]</t>
+  </si>
+  <si>
+    <t>[0.1434917002916336]</t>
+  </si>
+  <si>
+    <t>[-0.020834460854530334]</t>
+  </si>
+  <si>
+    <t>[0.315181702375412]</t>
+  </si>
+  <si>
+    <t>[0.08981326967477798]</t>
+  </si>
+  <si>
+    <t>[0.13756035268306732]</t>
+  </si>
+  <si>
+    <t>[0.014645216055214405]</t>
+  </si>
+  <si>
+    <t>[-0.2782866656780243]</t>
+  </si>
+  <si>
+    <t>[-0.07529027760028839]</t>
+  </si>
+  <si>
+    <t>[-0.08104121685028076]</t>
+  </si>
+  <si>
+    <t>[-0.10026291757822037]</t>
+  </si>
+  <si>
+    <t>[-0.12147488445043564]</t>
+  </si>
+  <si>
+    <t>[-0.2122759073972702]</t>
+  </si>
+  <si>
+    <t>[0.13964469730854034]</t>
+  </si>
+  <si>
+    <t>[0.03174770995974541]</t>
+  </si>
+  <si>
+    <t>[-0.056532278656959534]</t>
+  </si>
+  <si>
+    <t>[-0.09367843717336655]</t>
+  </si>
+  <si>
+    <t>[0.3631137013435364]</t>
+  </si>
+  <si>
+    <t>[-0.0666000172495842]</t>
   </si>
   <si>
     <t>b_i</t>
@@ -919,76 +3511,148 @@
     <t>b_o</t>
   </si>
   <si>
-    <t>[-0.2504695951938629]</t>
-  </si>
-  <si>
-    <t>[1.197741985321045]</t>
-  </si>
-  <si>
-    <t>[-0.15691068768501282]</t>
-  </si>
-  <si>
-    <t>[-0.2492167204618454]</t>
-  </si>
-  <si>
-    <t>[-0.29710763692855835]</t>
-  </si>
-  <si>
-    <t>[1.2496267557144165]</t>
-  </si>
-  <si>
-    <t>[0.2879333794116974]</t>
-  </si>
-  <si>
-    <t>[0.15039412677288055]</t>
-  </si>
-  <si>
-    <t>[0.16009463369846344]</t>
-  </si>
-  <si>
-    <t>[1.1830198764801025]</t>
-  </si>
-  <si>
-    <t>[-0.3206143379211426]</t>
-  </si>
-  <si>
-    <t>[0.22588056325912476]</t>
-  </si>
-  <si>
-    <t>[-0.21126465499401093]</t>
-  </si>
-  <si>
-    <t>[1.1298582553863525]</t>
-  </si>
-  <si>
-    <t>[-0.2234540581703186]</t>
-  </si>
-  <si>
-    <t>[-0.13140779733657837]</t>
-  </si>
-  <si>
-    <t>[0.2596726417541504]</t>
-  </si>
-  <si>
-    <t>[1.206649899482727]</t>
-  </si>
-  <si>
-    <t>[0.23849238455295563]</t>
-  </si>
-  <si>
-    <t>[-0.169502392411232]</t>
-  </si>
-  <si>
-    <t>[0.10810491442680359]</t>
-  </si>
-  <si>
-    <t>[1.1440658569335938]</t>
-  </si>
-  <si>
-    <t>[0.2445054054260254]</t>
-  </si>
-  <si>
-    <t>[0.24955958127975464]</t>
+    <t>[0.22878018021583557]</t>
+  </si>
+  <si>
+    <t>[1.1634068489074707]</t>
+  </si>
+  <si>
+    <t>[0.20283611118793488]</t>
+  </si>
+  <si>
+    <t>[-0.13306598365306854]</t>
+  </si>
+  <si>
+    <t>[-0.2556663751602173]</t>
+  </si>
+  <si>
+    <t>[1.0940982103347778]</t>
+  </si>
+  <si>
+    <t>[-0.12823113799095154]</t>
+  </si>
+  <si>
+    <t>[-0.13999100029468536]</t>
+  </si>
+  <si>
+    <t>[-0.17708075046539307]</t>
+  </si>
+  <si>
+    <t>[1.0842320919036865]</t>
+  </si>
+  <si>
+    <t>[-0.16090957820415497]</t>
+  </si>
+  <si>
+    <t>[-0.09098020195960999]</t>
+  </si>
+  <si>
+    <t>[0.22408048808574677]</t>
+  </si>
+  <si>
+    <t>[1.2112363576889038]</t>
+  </si>
+  <si>
+    <t>[0.24233734607696533]</t>
+  </si>
+  <si>
+    <t>[-0.16622371971607208]</t>
+  </si>
+  <si>
+    <t>[-0.087370365858078]</t>
+  </si>
+  <si>
+    <t>[1.0461081266403198]</t>
+  </si>
+  <si>
+    <t>[-0.14960728585720062]</t>
+  </si>
+  <si>
+    <t>[-0.10728788375854492]</t>
+  </si>
+  <si>
+    <t>[0.23682838678359985]</t>
+  </si>
+  <si>
+    <t>[1.1816002130508423]</t>
+  </si>
+  <si>
+    <t>[0.21306777000427246]</t>
+  </si>
+  <si>
+    <t>[-0.15659771859645844]</t>
+  </si>
+  <si>
+    <t>[-0.21066416800022125]</t>
+  </si>
+  <si>
+    <t>[1.126628041267395]</t>
+  </si>
+  <si>
+    <t>[0.19744248688220978]</t>
+  </si>
+  <si>
+    <t>[-0.12054060399532318]</t>
+  </si>
+  <si>
+    <t>[-0.042630285024642944]</t>
+  </si>
+  <si>
+    <t>[0.9958369731903076]</t>
+  </si>
+  <si>
+    <t>[-0.039975784718990326]</t>
+  </si>
+  <si>
+    <t>[0.00047811141121201217]</t>
+  </si>
+  <si>
+    <t>[0.15811623632907867]</t>
+  </si>
+  <si>
+    <t>[1.0608783960342407]</t>
+  </si>
+  <si>
+    <t>[0.12427763640880585]</t>
+  </si>
+  <si>
+    <t>[-0.10649821162223816]</t>
+  </si>
+  <si>
+    <t>[0.25133973360061646]</t>
+  </si>
+  <si>
+    <t>[1.2011291980743408]</t>
+  </si>
+  <si>
+    <t>[0.23371469974517822]</t>
+  </si>
+  <si>
+    <t>[0.18688498437404633]</t>
+  </si>
+  <si>
+    <t>[-0.24356840550899506]</t>
+  </si>
+  <si>
+    <t>[1.2189208269119263]</t>
+  </si>
+  <si>
+    <t>[-0.2407483160495758]</t>
+  </si>
+  <si>
+    <t>[-0.19465330243110657]</t>
+  </si>
+  <si>
+    <t>[0.25071460008621216]</t>
+  </si>
+  <si>
+    <t>[1.2179282903671265]</t>
+  </si>
+  <si>
+    <t>[-0.2550506591796875]</t>
+  </si>
+  <si>
+    <t>[0.15892021358013153]</t>
   </si>
 </sst>
 </file>
@@ -1337,7 +4001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1969,6 +4633,1842 @@
       </c>
       <c r="E37" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" t="s">
+        <v>170</v>
+      </c>
+      <c r="E43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" t="s">
+        <v>174</v>
+      </c>
+      <c r="E44" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" t="s">
+        <v>186</v>
+      </c>
+      <c r="E47" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" t="s">
+        <v>189</v>
+      </c>
+      <c r="D48" t="s">
+        <v>190</v>
+      </c>
+      <c r="E48" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" t="s">
+        <v>193</v>
+      </c>
+      <c r="D49" t="s">
+        <v>194</v>
+      </c>
+      <c r="E49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>200</v>
+      </c>
+      <c r="C51" t="s">
+        <v>201</v>
+      </c>
+      <c r="D51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E51" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" t="s">
+        <v>206</v>
+      </c>
+      <c r="E52" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>208</v>
+      </c>
+      <c r="C53" t="s">
+        <v>209</v>
+      </c>
+      <c r="D53" t="s">
+        <v>210</v>
+      </c>
+      <c r="E53" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>212</v>
+      </c>
+      <c r="C54" t="s">
+        <v>213</v>
+      </c>
+      <c r="D54" t="s">
+        <v>214</v>
+      </c>
+      <c r="E54" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" t="s">
+        <v>217</v>
+      </c>
+      <c r="D55" t="s">
+        <v>218</v>
+      </c>
+      <c r="E55" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>220</v>
+      </c>
+      <c r="C56" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" t="s">
+        <v>222</v>
+      </c>
+      <c r="E56" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>224</v>
+      </c>
+      <c r="C57" t="s">
+        <v>225</v>
+      </c>
+      <c r="D57" t="s">
+        <v>226</v>
+      </c>
+      <c r="E57" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>228</v>
+      </c>
+      <c r="C58" t="s">
+        <v>229</v>
+      </c>
+      <c r="D58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E58" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>232</v>
+      </c>
+      <c r="C59" t="s">
+        <v>233</v>
+      </c>
+      <c r="D59" t="s">
+        <v>234</v>
+      </c>
+      <c r="E59" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>236</v>
+      </c>
+      <c r="C60" t="s">
+        <v>237</v>
+      </c>
+      <c r="D60" t="s">
+        <v>238</v>
+      </c>
+      <c r="E60" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>240</v>
+      </c>
+      <c r="C61" t="s">
+        <v>241</v>
+      </c>
+      <c r="D61" t="s">
+        <v>242</v>
+      </c>
+      <c r="E61" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>244</v>
+      </c>
+      <c r="C62" t="s">
+        <v>245</v>
+      </c>
+      <c r="D62" t="s">
+        <v>246</v>
+      </c>
+      <c r="E62" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>248</v>
+      </c>
+      <c r="C63" t="s">
+        <v>249</v>
+      </c>
+      <c r="D63" t="s">
+        <v>250</v>
+      </c>
+      <c r="E63" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>252</v>
+      </c>
+      <c r="C64" t="s">
+        <v>253</v>
+      </c>
+      <c r="D64" t="s">
+        <v>254</v>
+      </c>
+      <c r="E64" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>256</v>
+      </c>
+      <c r="C65" t="s">
+        <v>257</v>
+      </c>
+      <c r="D65" t="s">
+        <v>258</v>
+      </c>
+      <c r="E65" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>260</v>
+      </c>
+      <c r="C66" t="s">
+        <v>261</v>
+      </c>
+      <c r="D66" t="s">
+        <v>262</v>
+      </c>
+      <c r="E66" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>264</v>
+      </c>
+      <c r="C67" t="s">
+        <v>265</v>
+      </c>
+      <c r="D67" t="s">
+        <v>266</v>
+      </c>
+      <c r="E67" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>268</v>
+      </c>
+      <c r="C68" t="s">
+        <v>269</v>
+      </c>
+      <c r="D68" t="s">
+        <v>270</v>
+      </c>
+      <c r="E68" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>272</v>
+      </c>
+      <c r="C69" t="s">
+        <v>273</v>
+      </c>
+      <c r="D69" t="s">
+        <v>274</v>
+      </c>
+      <c r="E69" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>276</v>
+      </c>
+      <c r="C70" t="s">
+        <v>277</v>
+      </c>
+      <c r="D70" t="s">
+        <v>278</v>
+      </c>
+      <c r="E70" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>280</v>
+      </c>
+      <c r="C71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D71" t="s">
+        <v>282</v>
+      </c>
+      <c r="E71" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>284</v>
+      </c>
+      <c r="C72" t="s">
+        <v>285</v>
+      </c>
+      <c r="D72" t="s">
+        <v>286</v>
+      </c>
+      <c r="E72" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>288</v>
+      </c>
+      <c r="C73" t="s">
+        <v>289</v>
+      </c>
+      <c r="D73" t="s">
+        <v>290</v>
+      </c>
+      <c r="E73" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>292</v>
+      </c>
+      <c r="C74" t="s">
+        <v>293</v>
+      </c>
+      <c r="D74" t="s">
+        <v>294</v>
+      </c>
+      <c r="E74" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>296</v>
+      </c>
+      <c r="C75" t="s">
+        <v>297</v>
+      </c>
+      <c r="D75" t="s">
+        <v>298</v>
+      </c>
+      <c r="E75" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>300</v>
+      </c>
+      <c r="C76" t="s">
+        <v>301</v>
+      </c>
+      <c r="D76" t="s">
+        <v>302</v>
+      </c>
+      <c r="E76" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>304</v>
+      </c>
+      <c r="C77" t="s">
+        <v>305</v>
+      </c>
+      <c r="D77" t="s">
+        <v>306</v>
+      </c>
+      <c r="E77" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>308</v>
+      </c>
+      <c r="C78" t="s">
+        <v>309</v>
+      </c>
+      <c r="D78" t="s">
+        <v>310</v>
+      </c>
+      <c r="E78" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>312</v>
+      </c>
+      <c r="C79" t="s">
+        <v>313</v>
+      </c>
+      <c r="D79" t="s">
+        <v>314</v>
+      </c>
+      <c r="E79" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>316</v>
+      </c>
+      <c r="C80" t="s">
+        <v>317</v>
+      </c>
+      <c r="D80" t="s">
+        <v>318</v>
+      </c>
+      <c r="E80" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>320</v>
+      </c>
+      <c r="C81" t="s">
+        <v>321</v>
+      </c>
+      <c r="D81" t="s">
+        <v>322</v>
+      </c>
+      <c r="E81" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>324</v>
+      </c>
+      <c r="C82" t="s">
+        <v>325</v>
+      </c>
+      <c r="D82" t="s">
+        <v>326</v>
+      </c>
+      <c r="E82" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>328</v>
+      </c>
+      <c r="C83" t="s">
+        <v>329</v>
+      </c>
+      <c r="D83" t="s">
+        <v>330</v>
+      </c>
+      <c r="E83" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>332</v>
+      </c>
+      <c r="C84" t="s">
+        <v>333</v>
+      </c>
+      <c r="D84" t="s">
+        <v>334</v>
+      </c>
+      <c r="E84" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>336</v>
+      </c>
+      <c r="C85" t="s">
+        <v>337</v>
+      </c>
+      <c r="D85" t="s">
+        <v>338</v>
+      </c>
+      <c r="E85" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>340</v>
+      </c>
+      <c r="C86" t="s">
+        <v>341</v>
+      </c>
+      <c r="D86" t="s">
+        <v>342</v>
+      </c>
+      <c r="E86" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>344</v>
+      </c>
+      <c r="C87" t="s">
+        <v>345</v>
+      </c>
+      <c r="D87" t="s">
+        <v>346</v>
+      </c>
+      <c r="E87" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>348</v>
+      </c>
+      <c r="C88" t="s">
+        <v>349</v>
+      </c>
+      <c r="D88" t="s">
+        <v>350</v>
+      </c>
+      <c r="E88" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>352</v>
+      </c>
+      <c r="C89" t="s">
+        <v>353</v>
+      </c>
+      <c r="D89" t="s">
+        <v>354</v>
+      </c>
+      <c r="E89" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>356</v>
+      </c>
+      <c r="C90" t="s">
+        <v>357</v>
+      </c>
+      <c r="D90" t="s">
+        <v>358</v>
+      </c>
+      <c r="E90" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>360</v>
+      </c>
+      <c r="C91" t="s">
+        <v>361</v>
+      </c>
+      <c r="D91" t="s">
+        <v>362</v>
+      </c>
+      <c r="E91" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>364</v>
+      </c>
+      <c r="C92" t="s">
+        <v>365</v>
+      </c>
+      <c r="D92" t="s">
+        <v>366</v>
+      </c>
+      <c r="E92" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>368</v>
+      </c>
+      <c r="C93" t="s">
+        <v>369</v>
+      </c>
+      <c r="D93" t="s">
+        <v>370</v>
+      </c>
+      <c r="E93" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>372</v>
+      </c>
+      <c r="C94" t="s">
+        <v>373</v>
+      </c>
+      <c r="D94" t="s">
+        <v>374</v>
+      </c>
+      <c r="E94" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>376</v>
+      </c>
+      <c r="C95" t="s">
+        <v>377</v>
+      </c>
+      <c r="D95" t="s">
+        <v>378</v>
+      </c>
+      <c r="E95" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>380</v>
+      </c>
+      <c r="C96" t="s">
+        <v>381</v>
+      </c>
+      <c r="D96" t="s">
+        <v>382</v>
+      </c>
+      <c r="E96" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>384</v>
+      </c>
+      <c r="C97" t="s">
+        <v>385</v>
+      </c>
+      <c r="D97" t="s">
+        <v>386</v>
+      </c>
+      <c r="E97" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>388</v>
+      </c>
+      <c r="C98" t="s">
+        <v>389</v>
+      </c>
+      <c r="D98" t="s">
+        <v>390</v>
+      </c>
+      <c r="E98" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>392</v>
+      </c>
+      <c r="C99" t="s">
+        <v>393</v>
+      </c>
+      <c r="D99" t="s">
+        <v>394</v>
+      </c>
+      <c r="E99" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>396</v>
+      </c>
+      <c r="C100" t="s">
+        <v>397</v>
+      </c>
+      <c r="D100" t="s">
+        <v>398</v>
+      </c>
+      <c r="E100" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>400</v>
+      </c>
+      <c r="C101" t="s">
+        <v>401</v>
+      </c>
+      <c r="D101" t="s">
+        <v>402</v>
+      </c>
+      <c r="E101" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>404</v>
+      </c>
+      <c r="C102" t="s">
+        <v>405</v>
+      </c>
+      <c r="D102" t="s">
+        <v>406</v>
+      </c>
+      <c r="E102" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>408</v>
+      </c>
+      <c r="C103" t="s">
+        <v>409</v>
+      </c>
+      <c r="D103" t="s">
+        <v>410</v>
+      </c>
+      <c r="E103" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>412</v>
+      </c>
+      <c r="C104" t="s">
+        <v>413</v>
+      </c>
+      <c r="D104" t="s">
+        <v>414</v>
+      </c>
+      <c r="E104" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>416</v>
+      </c>
+      <c r="C105" t="s">
+        <v>417</v>
+      </c>
+      <c r="D105" t="s">
+        <v>418</v>
+      </c>
+      <c r="E105" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>420</v>
+      </c>
+      <c r="C106" t="s">
+        <v>421</v>
+      </c>
+      <c r="D106" t="s">
+        <v>422</v>
+      </c>
+      <c r="E106" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>424</v>
+      </c>
+      <c r="C107" t="s">
+        <v>425</v>
+      </c>
+      <c r="D107" t="s">
+        <v>426</v>
+      </c>
+      <c r="E107" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>428</v>
+      </c>
+      <c r="C108" t="s">
+        <v>429</v>
+      </c>
+      <c r="D108" t="s">
+        <v>430</v>
+      </c>
+      <c r="E108" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>432</v>
+      </c>
+      <c r="C109" t="s">
+        <v>433</v>
+      </c>
+      <c r="D109" t="s">
+        <v>434</v>
+      </c>
+      <c r="E109" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>436</v>
+      </c>
+      <c r="C110" t="s">
+        <v>437</v>
+      </c>
+      <c r="D110" t="s">
+        <v>438</v>
+      </c>
+      <c r="E110" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>440</v>
+      </c>
+      <c r="C111" t="s">
+        <v>441</v>
+      </c>
+      <c r="D111" t="s">
+        <v>442</v>
+      </c>
+      <c r="E111" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>444</v>
+      </c>
+      <c r="C112" t="s">
+        <v>445</v>
+      </c>
+      <c r="D112" t="s">
+        <v>446</v>
+      </c>
+      <c r="E112" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>448</v>
+      </c>
+      <c r="C113" t="s">
+        <v>449</v>
+      </c>
+      <c r="D113" t="s">
+        <v>450</v>
+      </c>
+      <c r="E113" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>452</v>
+      </c>
+      <c r="C114" t="s">
+        <v>453</v>
+      </c>
+      <c r="D114" t="s">
+        <v>454</v>
+      </c>
+      <c r="E114" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>456</v>
+      </c>
+      <c r="C115" t="s">
+        <v>457</v>
+      </c>
+      <c r="D115" t="s">
+        <v>458</v>
+      </c>
+      <c r="E115" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>460</v>
+      </c>
+      <c r="C116" t="s">
+        <v>461</v>
+      </c>
+      <c r="D116" t="s">
+        <v>462</v>
+      </c>
+      <c r="E116" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>464</v>
+      </c>
+      <c r="C117" t="s">
+        <v>465</v>
+      </c>
+      <c r="D117" t="s">
+        <v>466</v>
+      </c>
+      <c r="E117" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>468</v>
+      </c>
+      <c r="C118" t="s">
+        <v>469</v>
+      </c>
+      <c r="D118" t="s">
+        <v>470</v>
+      </c>
+      <c r="E118" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>472</v>
+      </c>
+      <c r="C119" t="s">
+        <v>473</v>
+      </c>
+      <c r="D119" t="s">
+        <v>474</v>
+      </c>
+      <c r="E119" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>476</v>
+      </c>
+      <c r="C120" t="s">
+        <v>477</v>
+      </c>
+      <c r="D120" t="s">
+        <v>478</v>
+      </c>
+      <c r="E120" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>480</v>
+      </c>
+      <c r="C121" t="s">
+        <v>481</v>
+      </c>
+      <c r="D121" t="s">
+        <v>482</v>
+      </c>
+      <c r="E121" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>484</v>
+      </c>
+      <c r="C122" t="s">
+        <v>485</v>
+      </c>
+      <c r="D122" t="s">
+        <v>486</v>
+      </c>
+      <c r="E122" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>488</v>
+      </c>
+      <c r="C123" t="s">
+        <v>489</v>
+      </c>
+      <c r="D123" t="s">
+        <v>490</v>
+      </c>
+      <c r="E123" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>492</v>
+      </c>
+      <c r="C124" t="s">
+        <v>493</v>
+      </c>
+      <c r="D124" t="s">
+        <v>494</v>
+      </c>
+      <c r="E124" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>496</v>
+      </c>
+      <c r="C125" t="s">
+        <v>497</v>
+      </c>
+      <c r="D125" t="s">
+        <v>498</v>
+      </c>
+      <c r="E125" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>500</v>
+      </c>
+      <c r="C126" t="s">
+        <v>501</v>
+      </c>
+      <c r="D126" t="s">
+        <v>502</v>
+      </c>
+      <c r="E126" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>504</v>
+      </c>
+      <c r="C127" t="s">
+        <v>505</v>
+      </c>
+      <c r="D127" t="s">
+        <v>506</v>
+      </c>
+      <c r="E127" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>508</v>
+      </c>
+      <c r="C128" t="s">
+        <v>509</v>
+      </c>
+      <c r="D128" t="s">
+        <v>510</v>
+      </c>
+      <c r="E128" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>512</v>
+      </c>
+      <c r="C129" t="s">
+        <v>513</v>
+      </c>
+      <c r="D129" t="s">
+        <v>514</v>
+      </c>
+      <c r="E129" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>516</v>
+      </c>
+      <c r="C130" t="s">
+        <v>517</v>
+      </c>
+      <c r="D130" t="s">
+        <v>518</v>
+      </c>
+      <c r="E130" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>520</v>
+      </c>
+      <c r="C131" t="s">
+        <v>521</v>
+      </c>
+      <c r="D131" t="s">
+        <v>522</v>
+      </c>
+      <c r="E131" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>524</v>
+      </c>
+      <c r="C132" t="s">
+        <v>525</v>
+      </c>
+      <c r="D132" t="s">
+        <v>526</v>
+      </c>
+      <c r="E132" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>528</v>
+      </c>
+      <c r="C133" t="s">
+        <v>529</v>
+      </c>
+      <c r="D133" t="s">
+        <v>530</v>
+      </c>
+      <c r="E133" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>532</v>
+      </c>
+      <c r="C134" t="s">
+        <v>533</v>
+      </c>
+      <c r="D134" t="s">
+        <v>534</v>
+      </c>
+      <c r="E134" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>536</v>
+      </c>
+      <c r="C135" t="s">
+        <v>537</v>
+      </c>
+      <c r="D135" t="s">
+        <v>538</v>
+      </c>
+      <c r="E135" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>540</v>
+      </c>
+      <c r="C136" t="s">
+        <v>541</v>
+      </c>
+      <c r="D136" t="s">
+        <v>542</v>
+      </c>
+      <c r="E136" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>544</v>
+      </c>
+      <c r="C137" t="s">
+        <v>545</v>
+      </c>
+      <c r="D137" t="s">
+        <v>546</v>
+      </c>
+      <c r="E137" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>548</v>
+      </c>
+      <c r="C138" t="s">
+        <v>549</v>
+      </c>
+      <c r="D138" t="s">
+        <v>550</v>
+      </c>
+      <c r="E138" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>552</v>
+      </c>
+      <c r="C139" t="s">
+        <v>553</v>
+      </c>
+      <c r="D139" t="s">
+        <v>554</v>
+      </c>
+      <c r="E139" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>556</v>
+      </c>
+      <c r="C140" t="s">
+        <v>557</v>
+      </c>
+      <c r="D140" t="s">
+        <v>558</v>
+      </c>
+      <c r="E140" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>560</v>
+      </c>
+      <c r="C141" t="s">
+        <v>561</v>
+      </c>
+      <c r="D141" t="s">
+        <v>562</v>
+      </c>
+      <c r="E141" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>564</v>
+      </c>
+      <c r="C142" t="s">
+        <v>565</v>
+      </c>
+      <c r="D142" t="s">
+        <v>566</v>
+      </c>
+      <c r="E142" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>568</v>
+      </c>
+      <c r="C143" t="s">
+        <v>569</v>
+      </c>
+      <c r="D143" t="s">
+        <v>570</v>
+      </c>
+      <c r="E143" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>572</v>
+      </c>
+      <c r="C144" t="s">
+        <v>573</v>
+      </c>
+      <c r="D144" t="s">
+        <v>574</v>
+      </c>
+      <c r="E144" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>576</v>
+      </c>
+      <c r="C145" t="s">
+        <v>577</v>
+      </c>
+      <c r="D145" t="s">
+        <v>578</v>
+      </c>
+      <c r="E145" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -1982,7 +6482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1992,16 +6492,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>580</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>149</v>
+        <v>581</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>582</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2009,16 +6509,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>584</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>585</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>586</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2026,16 +6526,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>588</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>589</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>590</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2043,16 +6543,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>592</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>593</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>594</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>595</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2060,16 +6560,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>596</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>597</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>598</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>599</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2077,16 +6577,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>600</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>601</v>
       </c>
       <c r="D6" t="s">
-        <v>170</v>
+        <v>602</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2094,16 +6594,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>604</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>605</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>606</v>
       </c>
       <c r="E7" t="s">
-        <v>175</v>
+        <v>607</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2111,16 +6611,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>608</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>609</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>610</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2128,16 +6628,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>612</v>
       </c>
       <c r="C9" t="s">
-        <v>181</v>
+        <v>613</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>614</v>
       </c>
       <c r="E9" t="s">
-        <v>183</v>
+        <v>615</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2145,16 +6645,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>616</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>617</v>
       </c>
       <c r="D10" t="s">
-        <v>186</v>
+        <v>618</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2162,16 +6662,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>620</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>621</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>622</v>
       </c>
       <c r="E11" t="s">
-        <v>191</v>
+        <v>623</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2179,16 +6679,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>624</v>
       </c>
       <c r="C12" t="s">
-        <v>193</v>
+        <v>625</v>
       </c>
       <c r="D12" t="s">
-        <v>194</v>
+        <v>626</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>627</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2196,16 +6696,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>628</v>
       </c>
       <c r="C13" t="s">
-        <v>197</v>
+        <v>629</v>
       </c>
       <c r="D13" t="s">
-        <v>198</v>
+        <v>630</v>
       </c>
       <c r="E13" t="s">
-        <v>199</v>
+        <v>631</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2213,16 +6713,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>632</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>633</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>634</v>
       </c>
       <c r="E14" t="s">
-        <v>203</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2230,16 +6730,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>204</v>
+        <v>636</v>
       </c>
       <c r="C15" t="s">
-        <v>205</v>
+        <v>637</v>
       </c>
       <c r="D15" t="s">
-        <v>206</v>
+        <v>638</v>
       </c>
       <c r="E15" t="s">
-        <v>207</v>
+        <v>639</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2247,16 +6747,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>640</v>
       </c>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>641</v>
       </c>
       <c r="D16" t="s">
-        <v>210</v>
+        <v>642</v>
       </c>
       <c r="E16" t="s">
-        <v>211</v>
+        <v>643</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2264,16 +6764,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>644</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>645</v>
       </c>
       <c r="D17" t="s">
-        <v>214</v>
+        <v>646</v>
       </c>
       <c r="E17" t="s">
-        <v>215</v>
+        <v>647</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2281,16 +6781,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>216</v>
+        <v>648</v>
       </c>
       <c r="C18" t="s">
-        <v>217</v>
+        <v>649</v>
       </c>
       <c r="D18" t="s">
-        <v>218</v>
+        <v>650</v>
       </c>
       <c r="E18" t="s">
-        <v>219</v>
+        <v>651</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2298,16 +6798,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>220</v>
+        <v>652</v>
       </c>
       <c r="C19" t="s">
-        <v>221</v>
+        <v>653</v>
       </c>
       <c r="D19" t="s">
-        <v>222</v>
+        <v>654</v>
       </c>
       <c r="E19" t="s">
-        <v>223</v>
+        <v>655</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2315,16 +6815,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>224</v>
+        <v>656</v>
       </c>
       <c r="C20" t="s">
-        <v>225</v>
+        <v>657</v>
       </c>
       <c r="D20" t="s">
-        <v>226</v>
+        <v>658</v>
       </c>
       <c r="E20" t="s">
-        <v>227</v>
+        <v>659</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2332,16 +6832,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>228</v>
+        <v>660</v>
       </c>
       <c r="C21" t="s">
-        <v>229</v>
+        <v>661</v>
       </c>
       <c r="D21" t="s">
-        <v>230</v>
+        <v>662</v>
       </c>
       <c r="E21" t="s">
-        <v>231</v>
+        <v>663</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2349,16 +6849,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>232</v>
+        <v>664</v>
       </c>
       <c r="C22" t="s">
-        <v>233</v>
+        <v>665</v>
       </c>
       <c r="D22" t="s">
-        <v>234</v>
+        <v>666</v>
       </c>
       <c r="E22" t="s">
-        <v>235</v>
+        <v>667</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2366,16 +6866,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>668</v>
       </c>
       <c r="C23" t="s">
-        <v>237</v>
+        <v>669</v>
       </c>
       <c r="D23" t="s">
-        <v>238</v>
+        <v>670</v>
       </c>
       <c r="E23" t="s">
-        <v>239</v>
+        <v>671</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2383,16 +6883,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>240</v>
+        <v>672</v>
       </c>
       <c r="C24" t="s">
-        <v>241</v>
+        <v>673</v>
       </c>
       <c r="D24" t="s">
-        <v>242</v>
+        <v>674</v>
       </c>
       <c r="E24" t="s">
-        <v>243</v>
+        <v>675</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2400,16 +6900,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>244</v>
+        <v>676</v>
       </c>
       <c r="C25" t="s">
-        <v>245</v>
+        <v>677</v>
       </c>
       <c r="D25" t="s">
-        <v>246</v>
+        <v>678</v>
       </c>
       <c r="E25" t="s">
-        <v>247</v>
+        <v>679</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2417,16 +6917,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>248</v>
+        <v>680</v>
       </c>
       <c r="C26" t="s">
-        <v>249</v>
+        <v>681</v>
       </c>
       <c r="D26" t="s">
-        <v>250</v>
+        <v>682</v>
       </c>
       <c r="E26" t="s">
-        <v>251</v>
+        <v>683</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2434,16 +6934,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>252</v>
+        <v>684</v>
       </c>
       <c r="C27" t="s">
-        <v>253</v>
+        <v>685</v>
       </c>
       <c r="D27" t="s">
-        <v>254</v>
+        <v>686</v>
       </c>
       <c r="E27" t="s">
-        <v>255</v>
+        <v>687</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2451,16 +6951,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>256</v>
+        <v>688</v>
       </c>
       <c r="C28" t="s">
-        <v>257</v>
+        <v>689</v>
       </c>
       <c r="D28" t="s">
-        <v>258</v>
+        <v>690</v>
       </c>
       <c r="E28" t="s">
-        <v>259</v>
+        <v>691</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2468,16 +6968,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>260</v>
+        <v>692</v>
       </c>
       <c r="C29" t="s">
-        <v>261</v>
+        <v>693</v>
       </c>
       <c r="D29" t="s">
-        <v>262</v>
+        <v>694</v>
       </c>
       <c r="E29" t="s">
-        <v>263</v>
+        <v>695</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2485,16 +6985,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>264</v>
+        <v>696</v>
       </c>
       <c r="C30" t="s">
-        <v>265</v>
+        <v>697</v>
       </c>
       <c r="D30" t="s">
-        <v>266</v>
+        <v>698</v>
       </c>
       <c r="E30" t="s">
-        <v>267</v>
+        <v>699</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2502,16 +7002,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>268</v>
+        <v>700</v>
       </c>
       <c r="C31" t="s">
-        <v>269</v>
+        <v>701</v>
       </c>
       <c r="D31" t="s">
-        <v>270</v>
+        <v>702</v>
       </c>
       <c r="E31" t="s">
-        <v>271</v>
+        <v>703</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2519,16 +7019,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>272</v>
+        <v>704</v>
       </c>
       <c r="C32" t="s">
-        <v>273</v>
+        <v>705</v>
       </c>
       <c r="D32" t="s">
-        <v>274</v>
+        <v>706</v>
       </c>
       <c r="E32" t="s">
-        <v>275</v>
+        <v>707</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2536,16 +7036,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>276</v>
+        <v>708</v>
       </c>
       <c r="C33" t="s">
-        <v>277</v>
+        <v>709</v>
       </c>
       <c r="D33" t="s">
-        <v>278</v>
+        <v>710</v>
       </c>
       <c r="E33" t="s">
-        <v>279</v>
+        <v>711</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2553,16 +7053,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>280</v>
+        <v>712</v>
       </c>
       <c r="C34" t="s">
-        <v>281</v>
+        <v>713</v>
       </c>
       <c r="D34" t="s">
-        <v>282</v>
+        <v>714</v>
       </c>
       <c r="E34" t="s">
-        <v>283</v>
+        <v>715</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2570,16 +7070,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>284</v>
+        <v>716</v>
       </c>
       <c r="C35" t="s">
-        <v>285</v>
+        <v>717</v>
       </c>
       <c r="D35" t="s">
-        <v>286</v>
+        <v>718</v>
       </c>
       <c r="E35" t="s">
-        <v>287</v>
+        <v>719</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2587,16 +7087,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>288</v>
+        <v>720</v>
       </c>
       <c r="C36" t="s">
-        <v>289</v>
+        <v>721</v>
       </c>
       <c r="D36" t="s">
-        <v>290</v>
+        <v>722</v>
       </c>
       <c r="E36" t="s">
-        <v>291</v>
+        <v>723</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2604,16 +7104,1852 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>292</v>
+        <v>724</v>
       </c>
       <c r="C37" t="s">
-        <v>293</v>
+        <v>725</v>
       </c>
       <c r="D37" t="s">
-        <v>294</v>
+        <v>726</v>
       </c>
       <c r="E37" t="s">
-        <v>295</v>
+        <v>727</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>728</v>
+      </c>
+      <c r="C38" t="s">
+        <v>729</v>
+      </c>
+      <c r="D38" t="s">
+        <v>730</v>
+      </c>
+      <c r="E38" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>732</v>
+      </c>
+      <c r="C39" t="s">
+        <v>733</v>
+      </c>
+      <c r="D39" t="s">
+        <v>734</v>
+      </c>
+      <c r="E39" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>736</v>
+      </c>
+      <c r="C40" t="s">
+        <v>737</v>
+      </c>
+      <c r="D40" t="s">
+        <v>738</v>
+      </c>
+      <c r="E40" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>740</v>
+      </c>
+      <c r="C41" t="s">
+        <v>741</v>
+      </c>
+      <c r="D41" t="s">
+        <v>742</v>
+      </c>
+      <c r="E41" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>744</v>
+      </c>
+      <c r="C42" t="s">
+        <v>745</v>
+      </c>
+      <c r="D42" t="s">
+        <v>746</v>
+      </c>
+      <c r="E42" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>748</v>
+      </c>
+      <c r="C43" t="s">
+        <v>749</v>
+      </c>
+      <c r="D43" t="s">
+        <v>750</v>
+      </c>
+      <c r="E43" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>752</v>
+      </c>
+      <c r="C44" t="s">
+        <v>753</v>
+      </c>
+      <c r="D44" t="s">
+        <v>754</v>
+      </c>
+      <c r="E44" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>756</v>
+      </c>
+      <c r="C45" t="s">
+        <v>757</v>
+      </c>
+      <c r="D45" t="s">
+        <v>758</v>
+      </c>
+      <c r="E45" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>760</v>
+      </c>
+      <c r="C46" t="s">
+        <v>761</v>
+      </c>
+      <c r="D46" t="s">
+        <v>762</v>
+      </c>
+      <c r="E46" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>764</v>
+      </c>
+      <c r="C47" t="s">
+        <v>765</v>
+      </c>
+      <c r="D47" t="s">
+        <v>766</v>
+      </c>
+      <c r="E47" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>768</v>
+      </c>
+      <c r="C48" t="s">
+        <v>769</v>
+      </c>
+      <c r="D48" t="s">
+        <v>770</v>
+      </c>
+      <c r="E48" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>772</v>
+      </c>
+      <c r="C49" t="s">
+        <v>773</v>
+      </c>
+      <c r="D49" t="s">
+        <v>774</v>
+      </c>
+      <c r="E49" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>776</v>
+      </c>
+      <c r="C50" t="s">
+        <v>777</v>
+      </c>
+      <c r="D50" t="s">
+        <v>778</v>
+      </c>
+      <c r="E50" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>780</v>
+      </c>
+      <c r="C51" t="s">
+        <v>781</v>
+      </c>
+      <c r="D51" t="s">
+        <v>782</v>
+      </c>
+      <c r="E51" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>784</v>
+      </c>
+      <c r="C52" t="s">
+        <v>785</v>
+      </c>
+      <c r="D52" t="s">
+        <v>786</v>
+      </c>
+      <c r="E52" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>788</v>
+      </c>
+      <c r="C53" t="s">
+        <v>789</v>
+      </c>
+      <c r="D53" t="s">
+        <v>790</v>
+      </c>
+      <c r="E53" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>792</v>
+      </c>
+      <c r="C54" t="s">
+        <v>793</v>
+      </c>
+      <c r="D54" t="s">
+        <v>794</v>
+      </c>
+      <c r="E54" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>796</v>
+      </c>
+      <c r="C55" t="s">
+        <v>797</v>
+      </c>
+      <c r="D55" t="s">
+        <v>798</v>
+      </c>
+      <c r="E55" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>800</v>
+      </c>
+      <c r="C56" t="s">
+        <v>801</v>
+      </c>
+      <c r="D56" t="s">
+        <v>802</v>
+      </c>
+      <c r="E56" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>804</v>
+      </c>
+      <c r="C57" t="s">
+        <v>805</v>
+      </c>
+      <c r="D57" t="s">
+        <v>806</v>
+      </c>
+      <c r="E57" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>808</v>
+      </c>
+      <c r="C58" t="s">
+        <v>809</v>
+      </c>
+      <c r="D58" t="s">
+        <v>810</v>
+      </c>
+      <c r="E58" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>812</v>
+      </c>
+      <c r="C59" t="s">
+        <v>813</v>
+      </c>
+      <c r="D59" t="s">
+        <v>814</v>
+      </c>
+      <c r="E59" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>816</v>
+      </c>
+      <c r="C60" t="s">
+        <v>817</v>
+      </c>
+      <c r="D60" t="s">
+        <v>818</v>
+      </c>
+      <c r="E60" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>820</v>
+      </c>
+      <c r="C61" t="s">
+        <v>821</v>
+      </c>
+      <c r="D61" t="s">
+        <v>822</v>
+      </c>
+      <c r="E61" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>824</v>
+      </c>
+      <c r="C62" t="s">
+        <v>825</v>
+      </c>
+      <c r="D62" t="s">
+        <v>826</v>
+      </c>
+      <c r="E62" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>828</v>
+      </c>
+      <c r="C63" t="s">
+        <v>829</v>
+      </c>
+      <c r="D63" t="s">
+        <v>830</v>
+      </c>
+      <c r="E63" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>832</v>
+      </c>
+      <c r="C64" t="s">
+        <v>833</v>
+      </c>
+      <c r="D64" t="s">
+        <v>834</v>
+      </c>
+      <c r="E64" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>836</v>
+      </c>
+      <c r="C65" t="s">
+        <v>837</v>
+      </c>
+      <c r="D65" t="s">
+        <v>838</v>
+      </c>
+      <c r="E65" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>840</v>
+      </c>
+      <c r="C66" t="s">
+        <v>841</v>
+      </c>
+      <c r="D66" t="s">
+        <v>842</v>
+      </c>
+      <c r="E66" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>844</v>
+      </c>
+      <c r="C67" t="s">
+        <v>845</v>
+      </c>
+      <c r="D67" t="s">
+        <v>846</v>
+      </c>
+      <c r="E67" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>848</v>
+      </c>
+      <c r="C68" t="s">
+        <v>849</v>
+      </c>
+      <c r="D68" t="s">
+        <v>850</v>
+      </c>
+      <c r="E68" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>852</v>
+      </c>
+      <c r="C69" t="s">
+        <v>853</v>
+      </c>
+      <c r="D69" t="s">
+        <v>854</v>
+      </c>
+      <c r="E69" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>856</v>
+      </c>
+      <c r="C70" t="s">
+        <v>857</v>
+      </c>
+      <c r="D70" t="s">
+        <v>858</v>
+      </c>
+      <c r="E70" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>860</v>
+      </c>
+      <c r="C71" t="s">
+        <v>861</v>
+      </c>
+      <c r="D71" t="s">
+        <v>862</v>
+      </c>
+      <c r="E71" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>864</v>
+      </c>
+      <c r="C72" t="s">
+        <v>865</v>
+      </c>
+      <c r="D72" t="s">
+        <v>866</v>
+      </c>
+      <c r="E72" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>868</v>
+      </c>
+      <c r="C73" t="s">
+        <v>869</v>
+      </c>
+      <c r="D73" t="s">
+        <v>870</v>
+      </c>
+      <c r="E73" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>872</v>
+      </c>
+      <c r="C74" t="s">
+        <v>873</v>
+      </c>
+      <c r="D74" t="s">
+        <v>874</v>
+      </c>
+      <c r="E74" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>876</v>
+      </c>
+      <c r="C75" t="s">
+        <v>877</v>
+      </c>
+      <c r="D75" t="s">
+        <v>878</v>
+      </c>
+      <c r="E75" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>880</v>
+      </c>
+      <c r="C76" t="s">
+        <v>881</v>
+      </c>
+      <c r="D76" t="s">
+        <v>882</v>
+      </c>
+      <c r="E76" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>884</v>
+      </c>
+      <c r="C77" t="s">
+        <v>885</v>
+      </c>
+      <c r="D77" t="s">
+        <v>886</v>
+      </c>
+      <c r="E77" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>888</v>
+      </c>
+      <c r="C78" t="s">
+        <v>889</v>
+      </c>
+      <c r="D78" t="s">
+        <v>890</v>
+      </c>
+      <c r="E78" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>892</v>
+      </c>
+      <c r="C79" t="s">
+        <v>893</v>
+      </c>
+      <c r="D79" t="s">
+        <v>894</v>
+      </c>
+      <c r="E79" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>896</v>
+      </c>
+      <c r="C80" t="s">
+        <v>897</v>
+      </c>
+      <c r="D80" t="s">
+        <v>898</v>
+      </c>
+      <c r="E80" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>900</v>
+      </c>
+      <c r="C81" t="s">
+        <v>901</v>
+      </c>
+      <c r="D81" t="s">
+        <v>902</v>
+      </c>
+      <c r="E81" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>904</v>
+      </c>
+      <c r="C82" t="s">
+        <v>905</v>
+      </c>
+      <c r="D82" t="s">
+        <v>906</v>
+      </c>
+      <c r="E82" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>908</v>
+      </c>
+      <c r="C83" t="s">
+        <v>909</v>
+      </c>
+      <c r="D83" t="s">
+        <v>910</v>
+      </c>
+      <c r="E83" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>912</v>
+      </c>
+      <c r="C84" t="s">
+        <v>913</v>
+      </c>
+      <c r="D84" t="s">
+        <v>914</v>
+      </c>
+      <c r="E84" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>916</v>
+      </c>
+      <c r="C85" t="s">
+        <v>917</v>
+      </c>
+      <c r="D85" t="s">
+        <v>918</v>
+      </c>
+      <c r="E85" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>920</v>
+      </c>
+      <c r="C86" t="s">
+        <v>921</v>
+      </c>
+      <c r="D86" t="s">
+        <v>922</v>
+      </c>
+      <c r="E86" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>924</v>
+      </c>
+      <c r="C87" t="s">
+        <v>925</v>
+      </c>
+      <c r="D87" t="s">
+        <v>926</v>
+      </c>
+      <c r="E87" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>928</v>
+      </c>
+      <c r="C88" t="s">
+        <v>929</v>
+      </c>
+      <c r="D88" t="s">
+        <v>930</v>
+      </c>
+      <c r="E88" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>932</v>
+      </c>
+      <c r="C89" t="s">
+        <v>933</v>
+      </c>
+      <c r="D89" t="s">
+        <v>934</v>
+      </c>
+      <c r="E89" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>936</v>
+      </c>
+      <c r="C90" t="s">
+        <v>937</v>
+      </c>
+      <c r="D90" t="s">
+        <v>938</v>
+      </c>
+      <c r="E90" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>940</v>
+      </c>
+      <c r="C91" t="s">
+        <v>941</v>
+      </c>
+      <c r="D91" t="s">
+        <v>942</v>
+      </c>
+      <c r="E91" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>944</v>
+      </c>
+      <c r="C92" t="s">
+        <v>945</v>
+      </c>
+      <c r="D92" t="s">
+        <v>946</v>
+      </c>
+      <c r="E92" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>948</v>
+      </c>
+      <c r="C93" t="s">
+        <v>949</v>
+      </c>
+      <c r="D93" t="s">
+        <v>950</v>
+      </c>
+      <c r="E93" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>952</v>
+      </c>
+      <c r="C94" t="s">
+        <v>953</v>
+      </c>
+      <c r="D94" t="s">
+        <v>954</v>
+      </c>
+      <c r="E94" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>956</v>
+      </c>
+      <c r="C95" t="s">
+        <v>957</v>
+      </c>
+      <c r="D95" t="s">
+        <v>958</v>
+      </c>
+      <c r="E95" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>960</v>
+      </c>
+      <c r="C96" t="s">
+        <v>961</v>
+      </c>
+      <c r="D96" t="s">
+        <v>962</v>
+      </c>
+      <c r="E96" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>964</v>
+      </c>
+      <c r="C97" t="s">
+        <v>965</v>
+      </c>
+      <c r="D97" t="s">
+        <v>966</v>
+      </c>
+      <c r="E97" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>968</v>
+      </c>
+      <c r="C98" t="s">
+        <v>969</v>
+      </c>
+      <c r="D98" t="s">
+        <v>970</v>
+      </c>
+      <c r="E98" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>972</v>
+      </c>
+      <c r="C99" t="s">
+        <v>973</v>
+      </c>
+      <c r="D99" t="s">
+        <v>974</v>
+      </c>
+      <c r="E99" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>976</v>
+      </c>
+      <c r="C100" t="s">
+        <v>977</v>
+      </c>
+      <c r="D100" t="s">
+        <v>978</v>
+      </c>
+      <c r="E100" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>980</v>
+      </c>
+      <c r="C101" t="s">
+        <v>981</v>
+      </c>
+      <c r="D101" t="s">
+        <v>982</v>
+      </c>
+      <c r="E101" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>984</v>
+      </c>
+      <c r="C102" t="s">
+        <v>985</v>
+      </c>
+      <c r="D102" t="s">
+        <v>986</v>
+      </c>
+      <c r="E102" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>988</v>
+      </c>
+      <c r="C103" t="s">
+        <v>989</v>
+      </c>
+      <c r="D103" t="s">
+        <v>990</v>
+      </c>
+      <c r="E103" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>992</v>
+      </c>
+      <c r="C104" t="s">
+        <v>993</v>
+      </c>
+      <c r="D104" t="s">
+        <v>994</v>
+      </c>
+      <c r="E104" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>996</v>
+      </c>
+      <c r="C105" t="s">
+        <v>997</v>
+      </c>
+      <c r="D105" t="s">
+        <v>998</v>
+      </c>
+      <c r="E105" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1159</v>
       </c>
     </row>
   </sheetData>
@@ -2627,7 +8963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2637,16 +8973,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>296</v>
+        <v>1160</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>297</v>
+        <v>1161</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>298</v>
+        <v>1162</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>299</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2654,16 +8990,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>1164</v>
       </c>
       <c r="C2" t="s">
-        <v>301</v>
+        <v>1165</v>
       </c>
       <c r="D2" t="s">
-        <v>302</v>
+        <v>1166</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2671,16 +9007,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>1168</v>
       </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>1169</v>
       </c>
       <c r="D3" t="s">
-        <v>306</v>
+        <v>1170</v>
       </c>
       <c r="E3" t="s">
-        <v>307</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2688,16 +9024,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>308</v>
+        <v>1172</v>
       </c>
       <c r="C4" t="s">
-        <v>309</v>
+        <v>1173</v>
       </c>
       <c r="D4" t="s">
-        <v>310</v>
+        <v>1174</v>
       </c>
       <c r="E4" t="s">
-        <v>311</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2705,16 +9041,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>312</v>
+        <v>1176</v>
       </c>
       <c r="C5" t="s">
-        <v>313</v>
+        <v>1177</v>
       </c>
       <c r="D5" t="s">
-        <v>314</v>
+        <v>1178</v>
       </c>
       <c r="E5" t="s">
-        <v>315</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2722,16 +9058,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>316</v>
+        <v>1180</v>
       </c>
       <c r="C6" t="s">
-        <v>317</v>
+        <v>1181</v>
       </c>
       <c r="D6" t="s">
-        <v>318</v>
+        <v>1182</v>
       </c>
       <c r="E6" t="s">
-        <v>319</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2739,16 +9075,118 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>320</v>
+        <v>1184</v>
       </c>
       <c r="C7" t="s">
-        <v>321</v>
+        <v>1185</v>
       </c>
       <c r="D7" t="s">
-        <v>322</v>
+        <v>1186</v>
       </c>
       <c r="E7" t="s">
-        <v>323</v>
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1211</v>
       </c>
     </row>
   </sheetData>
